--- a/file/CSV/supply.xlsx
+++ b/file/CSV/supply.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1315" uniqueCount="731">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1317" uniqueCount="734">
   <si>
     <t>제품코드</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2276,6 +2276,18 @@
   </si>
   <si>
     <t>A111</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A190513102</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A190515102</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A101</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2670,10 +2682,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E656"/>
+  <dimension ref="A1:E657"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A605" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="I658" sqref="I658"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2705,13 +2717,13 @@
     </row>
     <row r="2" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>728</v>
+        <v>732</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>729</v>
+        <v>733</v>
       </c>
       <c r="C2" s="3">
-        <v>43600.390856481485</v>
+        <v>43600.666666666664</v>
       </c>
       <c r="D2" s="1">
         <v>20</v>
@@ -2722,13 +2734,13 @@
     </row>
     <row r="3" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>726</v>
+        <v>728</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>727</v>
+        <v>729</v>
       </c>
       <c r="C3" s="3">
-        <v>43599.426458333335</v>
+        <v>43600.390856481485</v>
       </c>
       <c r="D3" s="1">
         <v>20</v>
@@ -2739,19 +2751,19 @@
     </row>
     <row r="4" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>724</v>
+        <v>726</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>725</v>
+        <v>727</v>
       </c>
       <c r="C4" s="3">
-        <v>43598.416666666664</v>
+        <v>43599.426458333335</v>
       </c>
       <c r="D4" s="1">
         <v>20</v>
       </c>
       <c r="E4" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -2759,41 +2771,41 @@
         <v>724</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>725</v>
+      </c>
+      <c r="C5" s="3">
+        <v>43598.416666666664</v>
+      </c>
+      <c r="D5" s="1">
+        <v>20</v>
+      </c>
+      <c r="E5" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>731</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>730</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C6" s="3">
         <v>43598.458333333336</v>
       </c>
-      <c r="D5" s="1">
-        <v>20</v>
-      </c>
-      <c r="E5" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C6" s="4">
-        <v>43598.333333333336</v>
-      </c>
       <c r="D6" s="1">
         <v>20</v>
       </c>
-      <c r="E6" s="2">
-        <v>1</v>
+      <c r="E6" s="1">
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C7" s="4">
         <v>43598.333333333336</v>
@@ -2802,15 +2814,15 @@
         <v>20</v>
       </c>
       <c r="E7" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C8" s="4">
         <v>43598.333333333336</v>
@@ -2819,15 +2831,15 @@
         <v>20</v>
       </c>
       <c r="E8" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C9" s="4">
         <v>43598.333333333336</v>
@@ -2836,15 +2848,15 @@
         <v>20</v>
       </c>
       <c r="E9" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C10" s="4">
         <v>43598.333333333336</v>
@@ -2853,15 +2865,15 @@
         <v>20</v>
       </c>
       <c r="E10" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C11" s="4">
         <v>43598.333333333336</v>
@@ -2870,15 +2882,15 @@
         <v>20</v>
       </c>
       <c r="E11" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C12" s="4">
         <v>43598.333333333336</v>
@@ -2887,18 +2899,18 @@
         <v>20</v>
       </c>
       <c r="E12" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>5</v>
+        <v>39</v>
       </c>
       <c r="C13" s="4">
-        <v>43598.416666666664</v>
+        <v>43598.333333333336</v>
       </c>
       <c r="D13" s="1">
         <v>20</v>
@@ -2909,10 +2921,10 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="C14" s="4">
         <v>43598.416666666664</v>
@@ -2926,10 +2938,10 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C15" s="4">
         <v>43598.416666666664</v>
@@ -2943,10 +2955,10 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C16" s="4">
         <v>43598.416666666664</v>
@@ -2960,10 +2972,10 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C17" s="4">
         <v>43598.416666666664</v>
@@ -2977,10 +2989,10 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C18" s="4">
         <v>43598.416666666664</v>
@@ -2994,13 +3006,13 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="C19" s="4">
-        <v>43597.541666666664</v>
+        <v>43598.416666666664</v>
       </c>
       <c r="D19" s="1">
         <v>20</v>
@@ -3011,10 +3023,10 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C20" s="4">
         <v>43597.541666666664</v>
@@ -3028,10 +3040,10 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C21" s="4">
         <v>43597.541666666664</v>
@@ -3045,10 +3057,10 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C22" s="4">
         <v>43597.541666666664</v>
@@ -3062,13 +3074,13 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C23" s="4">
-        <v>43591.375</v>
+        <v>43597.541666666664</v>
       </c>
       <c r="D23" s="1">
         <v>20</v>
@@ -3079,10 +3091,10 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C24" s="4">
         <v>43591.375</v>
@@ -3096,10 +3108,10 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C25" s="4">
         <v>43591.375</v>
@@ -3113,13 +3125,13 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C26" s="4">
-        <v>43589.75</v>
+        <v>43591.375</v>
       </c>
       <c r="D26" s="1">
         <v>20</v>
@@ -3130,10 +3142,10 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C27" s="4">
         <v>43589.75</v>
@@ -3147,10 +3159,10 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C28" s="4">
         <v>43589.75</v>
@@ -3164,13 +3176,13 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>30</v>
+        <v>58</v>
       </c>
       <c r="C29" s="4">
-        <v>43587.916666666664</v>
+        <v>43589.75</v>
       </c>
       <c r="D29" s="1">
         <v>20</v>
@@ -3181,10 +3193,10 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C30" s="4">
         <v>43587.916666666664</v>
@@ -3198,10 +3210,10 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C31" s="4">
         <v>43587.916666666664</v>
@@ -3215,10 +3227,10 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C32" s="4">
         <v>43587.916666666664</v>
@@ -3232,13 +3244,13 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C33" s="4">
-        <v>43585.416666666664</v>
+        <v>43587.916666666664</v>
       </c>
       <c r="D33" s="1">
         <v>20</v>
@@ -3249,10 +3261,10 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C34" s="4">
         <v>43585.416666666664</v>
@@ -3266,10 +3278,10 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C35" s="4">
         <v>43585.416666666664</v>
@@ -3283,13 +3295,13 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>5</v>
+        <v>43</v>
       </c>
       <c r="C36" s="4">
-        <v>43583.541666666664</v>
+        <v>43585.416666666664</v>
       </c>
       <c r="D36" s="1">
         <v>20</v>
@@ -3300,13 +3312,13 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="C37" s="4">
-        <v>43584.541666608799</v>
+        <v>43583.541666666664</v>
       </c>
       <c r="D37" s="1">
         <v>20</v>
@@ -3317,13 +3329,13 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>69</v>
+        <v>13</v>
       </c>
       <c r="C38" s="4">
-        <v>43585.541666608799</v>
+        <v>43584.541666608799</v>
       </c>
       <c r="D38" s="1">
         <v>20</v>
@@ -3334,13 +3346,13 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C39" s="4">
-        <v>43577.916666666664</v>
+        <v>43585.541666608799</v>
       </c>
       <c r="D39" s="1">
         <v>20</v>
@@ -3351,10 +3363,10 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>56</v>
+        <v>73</v>
       </c>
       <c r="C40" s="4">
         <v>43577.916666666664</v>
@@ -3368,10 +3380,10 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>77</v>
+        <v>56</v>
       </c>
       <c r="C41" s="4">
         <v>43577.916666666664</v>
@@ -3385,13 +3397,13 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>28</v>
+        <v>77</v>
       </c>
       <c r="C42" s="4">
-        <v>43575.75</v>
+        <v>43577.916666666664</v>
       </c>
       <c r="D42" s="1">
         <v>20</v>
@@ -3402,10 +3414,10 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C43" s="4">
         <v>43575.75</v>
@@ -3419,10 +3431,10 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C44" s="4">
         <v>43575.75</v>
@@ -3436,13 +3448,13 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="C45" s="4">
-        <v>43571.333333333336</v>
+        <v>43575.75</v>
       </c>
       <c r="D45" s="1">
         <v>20</v>
@@ -3453,10 +3465,10 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>85</v>
+        <v>48</v>
       </c>
       <c r="C46" s="4">
         <v>43571.333333333336</v>
@@ -3470,10 +3482,10 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C47" s="4">
         <v>43571.333333333336</v>
@@ -3487,13 +3499,13 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C48" s="4">
-        <v>43569.416666666664</v>
+        <v>43571.333333333336</v>
       </c>
       <c r="D48" s="1">
         <v>20</v>
@@ -3504,13 +3516,13 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>15</v>
+        <v>91</v>
       </c>
       <c r="C49" s="4">
-        <v>43570.416666608799</v>
+        <v>43569.416666666664</v>
       </c>
       <c r="D49" s="1">
         <v>20</v>
@@ -3521,13 +3533,13 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C50" s="4">
-        <v>43571.416666608799</v>
+        <v>43570.416666608799</v>
       </c>
       <c r="D50" s="1">
         <v>20</v>
@@ -3538,13 +3550,13 @@
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="C51" s="4">
-        <v>43563</v>
+        <v>43571.416666608799</v>
       </c>
       <c r="D51" s="1">
         <v>20</v>
@@ -3555,10 +3567,10 @@
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C52" s="4">
         <v>43563</v>
@@ -3572,10 +3584,10 @@
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C53" s="4">
         <v>43563</v>
@@ -3589,13 +3601,13 @@
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C54" s="4">
-        <v>43557.208333333336</v>
+        <v>43563</v>
       </c>
       <c r="D54" s="1">
         <v>20</v>
@@ -3606,10 +3618,10 @@
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C55" s="4">
         <v>43557.208333333336</v>
@@ -3623,10 +3635,10 @@
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C56" s="4">
         <v>43557.208333333336</v>
@@ -3640,13 +3652,13 @@
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>28</v>
+        <v>50</v>
       </c>
       <c r="C57" s="4">
-        <v>43556.75</v>
+        <v>43557.208333333336</v>
       </c>
       <c r="D57" s="1">
         <v>20</v>
@@ -3657,10 +3669,10 @@
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C58" s="4">
         <v>43556.75</v>
@@ -3674,10 +3686,10 @@
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C59" s="4">
         <v>43556.75</v>
@@ -3691,13 +3703,13 @@
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>5</v>
+        <v>31</v>
       </c>
       <c r="C60" s="4">
-        <v>43555.541666666664</v>
+        <v>43556.75</v>
       </c>
       <c r="D60" s="1">
         <v>20</v>
@@ -3708,10 +3720,10 @@
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>105</v>
+        <v>5</v>
       </c>
       <c r="C61" s="4">
         <v>43555.541666666664</v>
@@ -3725,10 +3737,10 @@
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>12</v>
+        <v>105</v>
       </c>
       <c r="C62" s="4">
         <v>43555.541666666664</v>
@@ -3742,13 +3754,13 @@
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="C63" s="4">
-        <v>43551.416666666664</v>
+        <v>43555.541666666664</v>
       </c>
       <c r="D63" s="1">
         <v>20</v>
@@ -3759,10 +3771,10 @@
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C64" s="4">
         <v>43551.416666666664</v>
@@ -3776,10 +3788,10 @@
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C65" s="4">
         <v>43551.416666666664</v>
@@ -3793,13 +3805,13 @@
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>110</v>
+        <v>37</v>
       </c>
       <c r="C66" s="4">
-        <v>43546.75</v>
+        <v>43551.416666666664</v>
       </c>
       <c r="D66" s="1">
         <v>20</v>
@@ -3810,10 +3822,10 @@
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>84</v>
+        <v>110</v>
       </c>
       <c r="C67" s="4">
         <v>43546.75</v>
@@ -3827,10 +3839,10 @@
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C68" s="4">
         <v>43546.75</v>
@@ -3844,13 +3856,13 @@
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>114</v>
+        <v>86</v>
       </c>
       <c r="C69" s="4">
-        <v>43543.291666666664</v>
+        <v>43546.75</v>
       </c>
       <c r="D69" s="1">
         <v>20</v>
@@ -3861,10 +3873,10 @@
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C70" s="4">
         <v>43543.291666666664</v>
@@ -3878,10 +3890,10 @@
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C71" s="4">
         <v>43543.291666666664</v>
@@ -3895,13 +3907,13 @@
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72" s="2" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>73</v>
+        <v>118</v>
       </c>
       <c r="C72" s="4">
-        <v>43538.833333333336</v>
+        <v>43543.291666666664</v>
       </c>
       <c r="D72" s="1">
         <v>20</v>
@@ -3912,10 +3924,10 @@
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>55</v>
+        <v>73</v>
       </c>
       <c r="C73" s="4">
         <v>43538.833333333336</v>
@@ -3929,10 +3941,10 @@
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C74" s="4">
         <v>43538.833333333336</v>
@@ -3946,13 +3958,13 @@
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>91</v>
+        <v>57</v>
       </c>
       <c r="C75" s="4">
-        <v>43536.416666666664</v>
+        <v>43538.833333333336</v>
       </c>
       <c r="D75" s="1">
         <v>20</v>
@@ -3963,10 +3975,10 @@
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>14</v>
+        <v>91</v>
       </c>
       <c r="C76" s="4">
         <v>43536.416666666664</v>
@@ -3980,10 +3992,10 @@
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C77" s="4">
         <v>43536.416666666664</v>
@@ -3997,13 +4009,13 @@
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>48</v>
+        <v>16</v>
       </c>
       <c r="C78" s="4">
-        <v>43533.541666666664</v>
+        <v>43536.416666666664</v>
       </c>
       <c r="D78" s="1">
         <v>20</v>
@@ -4014,10 +4026,10 @@
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C79" s="4">
         <v>43533.541666666664</v>
@@ -4031,10 +4043,10 @@
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A80" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C80" s="4">
         <v>43533.541666666664</v>
@@ -4048,13 +4060,13 @@
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A81" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>129</v>
+        <v>50</v>
       </c>
       <c r="C81" s="4">
-        <v>43530.958333333336</v>
+        <v>43533.541666666664</v>
       </c>
       <c r="D81" s="1">
         <v>20</v>
@@ -4065,10 +4077,10 @@
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A82" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>41</v>
+        <v>129</v>
       </c>
       <c r="C82" s="4">
         <v>43530.958333333336</v>
@@ -4082,10 +4094,10 @@
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A83" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>93</v>
+        <v>41</v>
       </c>
       <c r="C83" s="4">
         <v>43530.958333333336</v>
@@ -4099,13 +4111,13 @@
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A84" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>39</v>
+        <v>93</v>
       </c>
       <c r="C84" s="4">
-        <v>43525.291666666664</v>
+        <v>43530.958333333336</v>
       </c>
       <c r="D84" s="1">
         <v>20</v>
@@ -4116,10 +4128,10 @@
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A85" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="C85" s="4">
         <v>43525.291666666664</v>
@@ -4133,10 +4145,10 @@
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A86" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C86" s="4">
         <v>43525.291666666664</v>
@@ -4150,13 +4162,13 @@
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A87" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C87" s="4">
-        <v>43523.833333333336</v>
+        <v>43525.291666666664</v>
       </c>
       <c r="D87" s="1">
         <v>20</v>
@@ -4167,10 +4179,10 @@
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A88" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C88" s="4">
         <v>43523.833333333336</v>
@@ -4184,10 +4196,10 @@
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A89" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C89" s="4">
         <v>43523.833333333336</v>
@@ -4201,13 +4213,13 @@
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A90" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="C90" s="4">
-        <v>43518.458333333336</v>
+        <v>43523.833333333336</v>
       </c>
       <c r="D90" s="1">
         <v>20</v>
@@ -4218,10 +4230,10 @@
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A91" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>142</v>
+        <v>18</v>
       </c>
       <c r="C91" s="4">
         <v>43518.458333333336</v>
@@ -4235,10 +4247,10 @@
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A92" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>19</v>
+        <v>142</v>
       </c>
       <c r="C92" s="4">
         <v>43518.458333333336</v>
@@ -4252,13 +4264,13 @@
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A93" s="2" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>143</v>
+        <v>19</v>
       </c>
       <c r="C93" s="4">
-        <v>43515.583333333336</v>
+        <v>43518.458333333336</v>
       </c>
       <c r="D93" s="1">
         <v>20</v>
@@ -4269,10 +4281,10 @@
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A94" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>44</v>
+        <v>143</v>
       </c>
       <c r="C94" s="4">
         <v>43515.583333333336</v>
@@ -4286,10 +4298,10 @@
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A95" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>117</v>
+        <v>44</v>
       </c>
       <c r="C95" s="4">
         <v>43515.583333333336</v>
@@ -4303,13 +4315,13 @@
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A96" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="C96" s="4">
-        <v>43511.25</v>
+        <v>43515.583333333336</v>
       </c>
       <c r="D96" s="1">
         <v>20</v>
@@ -4320,13 +4332,13 @@
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A97" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>84</v>
+        <v>110</v>
       </c>
       <c r="C97" s="4">
-        <v>43512.25</v>
+        <v>43511.25</v>
       </c>
       <c r="D97" s="1">
         <v>20</v>
@@ -4337,13 +4349,13 @@
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A98" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C98" s="4">
-        <v>43513.25</v>
+        <v>43512.25</v>
       </c>
       <c r="D98" s="1">
         <v>20</v>
@@ -4354,13 +4366,13 @@
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A99" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>708</v>
+        <v>86</v>
       </c>
       <c r="C99" s="4">
-        <v>43504.291666666664</v>
+        <v>43513.25</v>
       </c>
       <c r="D99" s="1">
         <v>20</v>
@@ -4371,10 +4383,10 @@
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A100" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="C100" s="4">
         <v>43504.291666666664</v>
@@ -4388,10 +4400,10 @@
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A101" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="C101" s="4">
         <v>43504.291666666664</v>
@@ -4405,13 +4417,13 @@
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A102" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="C102" s="4">
-        <v>43503.5</v>
+        <v>43504.291666666664</v>
       </c>
       <c r="D102" s="1">
         <v>20</v>
@@ -4422,10 +4434,10 @@
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A103" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>105</v>
+        <v>711</v>
       </c>
       <c r="C103" s="4">
         <v>43503.5</v>
@@ -4439,10 +4451,10 @@
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A104" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>12</v>
+        <v>105</v>
       </c>
       <c r="C104" s="4">
         <v>43503.5</v>
@@ -4456,13 +4468,13 @@
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A105" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>712</v>
+        <v>12</v>
       </c>
       <c r="C105" s="4">
-        <v>43501.541666666664</v>
+        <v>43503.5</v>
       </c>
       <c r="D105" s="1">
         <v>20</v>
@@ -4473,10 +4485,10 @@
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A106" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>42</v>
+        <v>712</v>
       </c>
       <c r="C106" s="4">
         <v>43501.541666666664</v>
@@ -4490,10 +4502,10 @@
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A107" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C107" s="4">
         <v>43501.541666666664</v>
@@ -4507,13 +4519,13 @@
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A108" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>713</v>
+        <v>43</v>
       </c>
       <c r="C108" s="4">
-        <v>43494.875</v>
+        <v>43501.541666666664</v>
       </c>
       <c r="D108" s="1">
         <v>20</v>
@@ -4524,10 +4536,10 @@
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A109" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>29</v>
+        <v>713</v>
       </c>
       <c r="C109" s="4">
         <v>43494.875</v>
@@ -4541,10 +4553,10 @@
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A110" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C110" s="4">
         <v>43494.875</v>
@@ -4558,13 +4570,13 @@
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A111" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>714</v>
+        <v>31</v>
       </c>
       <c r="C111" s="4">
-        <v>43493.916666666664</v>
+        <v>43494.875</v>
       </c>
       <c r="D111" s="1">
         <v>20</v>
@@ -4575,10 +4587,10 @@
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A112" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>49</v>
+        <v>714</v>
       </c>
       <c r="C112" s="4">
         <v>43493.916666666664</v>
@@ -4592,10 +4604,10 @@
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A113" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C113" s="4">
         <v>43493.916666666664</v>
@@ -4609,13 +4621,13 @@
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A114" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>715</v>
+        <v>50</v>
       </c>
       <c r="C114" s="4">
-        <v>43487.583333333336</v>
+        <v>43493.916666666664</v>
       </c>
       <c r="D114" s="1">
         <v>20</v>
@@ -4626,10 +4638,10 @@
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A115" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>55</v>
+        <v>715</v>
       </c>
       <c r="C115" s="4">
         <v>43487.583333333336</v>
@@ -4643,10 +4655,10 @@
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A116" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C116" s="4">
         <v>43487.583333333336</v>
@@ -4660,13 +4672,13 @@
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A117" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>716</v>
+        <v>57</v>
       </c>
       <c r="C117" s="4">
-        <v>43485.333333333336</v>
+        <v>43487.583333333336</v>
       </c>
       <c r="D117" s="1">
         <v>20</v>
@@ -4677,10 +4689,10 @@
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A118" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>14</v>
+        <v>716</v>
       </c>
       <c r="C118" s="4">
         <v>43485.333333333336</v>
@@ -4694,10 +4706,10 @@
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A119" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C119" s="4">
         <v>43485.333333333336</v>
@@ -4711,13 +4723,13 @@
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A120" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="C120" s="4">
-        <v>43480.083333333336</v>
+        <v>43485.333333333336</v>
       </c>
       <c r="D120" s="1">
         <v>20</v>
@@ -4728,10 +4740,10 @@
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A121" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C121" s="4">
         <v>43480.083333333336</v>
@@ -4745,10 +4757,10 @@
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A122" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C122" s="4">
         <v>43480.083333333336</v>
@@ -4762,13 +4774,13 @@
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A123" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="C123" s="4">
-        <v>43479.958333333336</v>
+        <v>43480.083333333336</v>
       </c>
       <c r="D123" s="1">
         <v>20</v>
@@ -4779,10 +4791,10 @@
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A124" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>117</v>
+        <v>44</v>
       </c>
       <c r="C124" s="4">
         <v>43479.958333333336</v>
@@ -4796,10 +4808,10 @@
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A125" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C125" s="4">
         <v>43479.958333333336</v>
@@ -4813,13 +4825,13 @@
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A126" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>717</v>
+        <v>118</v>
       </c>
       <c r="C126" s="4">
-        <v>43473.416666666664</v>
+        <v>43479.958333333336</v>
       </c>
       <c r="D126" s="1">
         <v>20</v>
@@ -4830,10 +4842,10 @@
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A127" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>84</v>
+        <v>717</v>
       </c>
       <c r="C127" s="4">
         <v>43473.416666666664</v>
@@ -4847,10 +4859,10 @@
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A128" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C128" s="4">
         <v>43473.416666666664</v>
@@ -4864,13 +4876,13 @@
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A129" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>58</v>
+        <v>86</v>
       </c>
       <c r="C129" s="4">
-        <v>43471.833333333336</v>
+        <v>43473.416666666664</v>
       </c>
       <c r="D129" s="1">
         <v>20</v>
@@ -4881,10 +4893,10 @@
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A130" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>135</v>
+        <v>58</v>
       </c>
       <c r="C130" s="4">
         <v>43471.833333333336</v>
@@ -4898,10 +4910,10 @@
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A131" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>76</v>
+        <v>135</v>
       </c>
       <c r="C131" s="4">
         <v>43471.833333333336</v>
@@ -4915,13 +4927,13 @@
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A132" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>718</v>
+        <v>76</v>
       </c>
       <c r="C132" s="4">
-        <v>43467.375</v>
+        <v>43471.833333333336</v>
       </c>
       <c r="D132" s="1">
         <v>20</v>
@@ -4932,10 +4944,10 @@
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A133" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>142</v>
+        <v>718</v>
       </c>
       <c r="C133" s="4">
         <v>43467.375</v>
@@ -4949,10 +4961,10 @@
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A134" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>19</v>
+        <v>142</v>
       </c>
       <c r="C134" s="4">
         <v>43467.375</v>
@@ -4966,13 +4978,13 @@
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A135" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>708</v>
+        <v>19</v>
       </c>
       <c r="C135" s="4">
-        <v>43464.125</v>
+        <v>43467.375</v>
       </c>
       <c r="D135" s="1">
         <v>20</v>
@@ -4983,10 +4995,10 @@
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A136" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="C136" s="4">
         <v>43464.125</v>
@@ -5000,10 +5012,10 @@
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A137" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="C137" s="4">
         <v>43464.125</v>
@@ -5017,13 +5029,13 @@
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A138" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>719</v>
+        <v>710</v>
       </c>
       <c r="C138" s="4">
-        <v>43461.625</v>
+        <v>43464.125</v>
       </c>
       <c r="D138" s="1">
         <v>20</v>
@@ -5034,10 +5046,10 @@
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A139" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>712</v>
+        <v>719</v>
       </c>
       <c r="C139" s="4">
         <v>43461.625</v>
@@ -5051,10 +5063,10 @@
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A140" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>42</v>
+        <v>712</v>
       </c>
       <c r="C140" s="4">
         <v>43461.625</v>
@@ -5068,13 +5080,13 @@
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A141" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>714</v>
+        <v>42</v>
       </c>
       <c r="C141" s="4">
-        <v>43457.041666666664</v>
+        <v>43461.625</v>
       </c>
       <c r="D141" s="1">
         <v>20</v>
@@ -5085,10 +5097,10 @@
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A142" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>49</v>
+        <v>714</v>
       </c>
       <c r="C142" s="4">
         <v>43457.041666666664</v>
@@ -5102,10 +5114,10 @@
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A143" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C143" s="4">
         <v>43457.041666666664</v>
@@ -5119,13 +5131,13 @@
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A144" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>720</v>
+        <v>50</v>
       </c>
       <c r="C144" s="4">
-        <v>43454.666666666664</v>
+        <v>43457.041666666664</v>
       </c>
       <c r="D144" s="1">
         <v>20</v>
@@ -5136,10 +5148,10 @@
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A145" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>713</v>
+        <v>720</v>
       </c>
       <c r="C145" s="4">
         <v>43454.666666666664</v>
@@ -5153,10 +5165,10 @@
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A146" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>29</v>
+        <v>713</v>
       </c>
       <c r="C146" s="4">
         <v>43454.666666666664</v>
@@ -5170,13 +5182,13 @@
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A147" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>721</v>
+        <v>29</v>
       </c>
       <c r="C147" s="4">
-        <v>43450.166666666664</v>
+        <v>43454.666666666664</v>
       </c>
       <c r="D147" s="1">
         <v>20</v>
@@ -5187,10 +5199,10 @@
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A148" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="C148" s="4">
         <v>43450.166666666664</v>
@@ -5204,10 +5216,10 @@
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A149" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>711</v>
+        <v>722</v>
       </c>
       <c r="C149" s="4">
         <v>43450.166666666664</v>
@@ -5221,13 +5233,13 @@
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A150" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>43</v>
+        <v>711</v>
       </c>
       <c r="C150" s="4">
-        <v>43450</v>
+        <v>43450.166666666664</v>
       </c>
       <c r="D150" s="1">
         <v>20</v>
@@ -5238,10 +5250,10 @@
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A151" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C151" s="4">
         <v>43450</v>
@@ -5255,10 +5267,10 @@
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A152" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>117</v>
+        <v>44</v>
       </c>
       <c r="C152" s="4">
         <v>43450</v>
@@ -5272,13 +5284,13 @@
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A153" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>717</v>
+        <v>117</v>
       </c>
       <c r="C153" s="4">
-        <v>43443.208333333336</v>
+        <v>43450</v>
       </c>
       <c r="D153" s="1">
         <v>20</v>
@@ -5289,10 +5301,10 @@
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A154" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>84</v>
+        <v>717</v>
       </c>
       <c r="C154" s="4">
         <v>43443.208333333336</v>
@@ -5306,10 +5318,10 @@
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A155" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C155" s="4">
         <v>43443.208333333336</v>
@@ -5323,13 +5335,13 @@
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A156" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>715</v>
+        <v>86</v>
       </c>
       <c r="C156" s="4">
-        <v>43439.708333333336</v>
+        <v>43443.208333333336</v>
       </c>
       <c r="D156" s="1">
         <v>20</v>
@@ -5340,10 +5352,10 @@
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A157" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>55</v>
+        <v>715</v>
       </c>
       <c r="C157" s="4">
         <v>43439.708333333336</v>
@@ -5357,10 +5369,10 @@
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A158" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C158" s="4">
         <v>43439.708333333336</v>
@@ -5374,13 +5386,13 @@
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A159" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>31</v>
+        <v>57</v>
       </c>
       <c r="C159" s="4">
-        <v>43436.458333333336</v>
+        <v>43439.708333333336</v>
       </c>
       <c r="D159" s="1">
         <v>20</v>
@@ -5391,10 +5403,10 @@
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A160" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C160" s="4">
         <v>43436.458333333336</v>
@@ -5408,10 +5420,10 @@
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A161" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C161" s="4">
         <v>43436.458333333336</v>
@@ -5425,13 +5437,13 @@
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A162" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>105</v>
+        <v>35</v>
       </c>
       <c r="C162" s="4">
-        <v>43434.25</v>
+        <v>43436.458333333336</v>
       </c>
       <c r="D162" s="1">
         <v>20</v>
@@ -5442,10 +5454,10 @@
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A163" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>12</v>
+        <v>105</v>
       </c>
       <c r="C163" s="4">
         <v>43434.25</v>
@@ -5459,10 +5471,10 @@
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A164" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>716</v>
+        <v>12</v>
       </c>
       <c r="C164" s="4">
         <v>43434.25</v>
@@ -5476,13 +5488,13 @@
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A165" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>714</v>
+        <v>716</v>
       </c>
       <c r="C165" s="4">
-        <v>43432.75</v>
+        <v>43434.25</v>
       </c>
       <c r="D165" s="1">
         <v>20</v>
@@ -5493,10 +5505,10 @@
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A166" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>49</v>
+        <v>714</v>
       </c>
       <c r="C166" s="4">
         <v>43432.75</v>
@@ -5510,10 +5522,10 @@
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A167" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C167" s="4">
         <v>43432.75</v>
@@ -5527,13 +5539,13 @@
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A168" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>118</v>
+        <v>50</v>
       </c>
       <c r="C168" s="4">
-        <v>43425.791666666664</v>
+        <v>43432.75</v>
       </c>
       <c r="D168" s="1">
         <v>20</v>
@@ -5544,10 +5556,10 @@
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A169" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>723</v>
+        <v>118</v>
       </c>
       <c r="C169" s="4">
         <v>43425.791666666664</v>
@@ -5561,10 +5573,10 @@
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A170" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>719</v>
+        <v>723</v>
       </c>
       <c r="C170" s="4">
         <v>43425.791666666664</v>
@@ -5578,13 +5590,13 @@
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A171" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>37</v>
+        <v>719</v>
       </c>
       <c r="C171" s="4">
-        <v>43420.291666666664</v>
+        <v>43425.791666666664</v>
       </c>
       <c r="D171" s="1">
         <v>20</v>
@@ -5595,10 +5607,10 @@
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A172" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>720</v>
+        <v>37</v>
       </c>
       <c r="C172" s="4">
         <v>43420.291666666664</v>
@@ -5612,10 +5624,10 @@
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A173" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>713</v>
+        <v>720</v>
       </c>
       <c r="C173" s="4">
         <v>43420.291666666664</v>
@@ -5629,13 +5641,13 @@
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A174" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>58</v>
+        <v>713</v>
       </c>
       <c r="C174" s="4">
-        <v>43418.5</v>
+        <v>43420.291666666664</v>
       </c>
       <c r="D174" s="1">
         <v>20</v>
@@ -5646,10 +5658,10 @@
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A175" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>135</v>
+        <v>58</v>
       </c>
       <c r="C175" s="4">
         <v>43418.5</v>
@@ -5663,10 +5675,10 @@
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A176" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>76</v>
+        <v>135</v>
       </c>
       <c r="C176" s="4">
         <v>43418.5</v>
@@ -5680,13 +5692,13 @@
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A177" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>14</v>
+        <v>76</v>
       </c>
       <c r="C177" s="4">
-        <v>43414.541666666664</v>
+        <v>43418.5</v>
       </c>
       <c r="D177" s="1">
         <v>20</v>
@@ -5697,10 +5709,10 @@
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A178" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C178" s="4">
         <v>43414.541666666664</v>
@@ -5714,10 +5726,10 @@
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A179" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>718</v>
+        <v>16</v>
       </c>
       <c r="C179" s="4">
         <v>43414.541666666664</v>
@@ -5731,13 +5743,13 @@
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A180" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>712</v>
+        <v>718</v>
       </c>
       <c r="C180" s="4">
-        <v>43412.875</v>
+        <v>43414.541666666664</v>
       </c>
       <c r="D180" s="1">
         <v>20</v>
@@ -5748,10 +5760,10 @@
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A181" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>42</v>
+        <v>712</v>
       </c>
       <c r="C181" s="4">
         <v>43412.875</v>
@@ -5765,10 +5777,10 @@
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A182" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C182" s="4">
         <v>43412.875</v>
@@ -5782,13 +5794,13 @@
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A183" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>717</v>
+        <v>43</v>
       </c>
       <c r="C183" s="4">
-        <v>43405.916666666664</v>
+        <v>43412.875</v>
       </c>
       <c r="D183" s="1">
         <v>20</v>
@@ -5799,10 +5811,10 @@
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A184" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>84</v>
+        <v>717</v>
       </c>
       <c r="C184" s="4">
         <v>43405.916666666664</v>
@@ -5816,10 +5828,10 @@
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A185" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C185" s="4">
         <v>43405.916666666664</v>
@@ -5833,13 +5845,13 @@
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A186" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>29</v>
+        <v>86</v>
       </c>
       <c r="C186" s="4">
-        <v>43402.583333333336</v>
+        <v>43405.916666666664</v>
       </c>
       <c r="D186" s="1">
         <v>20</v>
@@ -5850,10 +5862,10 @@
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A187" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C187" s="4">
         <v>43402.583333333336</v>
@@ -5867,10 +5879,10 @@
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A188" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C188" s="4">
         <v>43402.583333333336</v>
@@ -5884,13 +5896,13 @@
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A189" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>708</v>
+        <v>33</v>
       </c>
       <c r="C189" s="4">
-        <v>43400.333333333336</v>
+        <v>43402.583333333336</v>
       </c>
       <c r="D189" s="1">
         <v>20</v>
@@ -5901,10 +5913,10 @@
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A190" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="C190" s="4">
         <v>43400.333333333336</v>
@@ -5918,10 +5930,10 @@
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A191" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="C191" s="4">
         <v>43400.333333333336</v>
@@ -5935,13 +5947,13 @@
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A192" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
       <c r="C192" s="4">
-        <v>43395.083333333336</v>
+        <v>43400.333333333336</v>
       </c>
       <c r="D192" s="1">
         <v>20</v>
@@ -5952,10 +5964,10 @@
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A193" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>49</v>
+        <v>714</v>
       </c>
       <c r="C193" s="4">
         <v>43395.083333333336</v>
@@ -5969,10 +5981,10 @@
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A194" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C194" s="4">
         <v>43395.083333333336</v>
@@ -5986,13 +5998,13 @@
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A195" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="C195" s="4">
-        <v>43392.958333333336</v>
+        <v>43395.083333333336</v>
       </c>
       <c r="D195" s="1">
         <v>20</v>
@@ -6003,10 +6015,10 @@
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A196" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C196" s="4">
         <v>43392.958333333336</v>
@@ -6020,10 +6032,10 @@
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A197" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>720</v>
+        <v>37</v>
       </c>
       <c r="C197" s="4">
         <v>43392.958333333336</v>
@@ -6037,13 +6049,13 @@
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A198" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>44</v>
+        <v>720</v>
       </c>
       <c r="C198" s="4">
-        <v>43388.416666666664</v>
+        <v>43392.958333333336</v>
       </c>
       <c r="D198" s="1">
         <v>20</v>
@@ -6054,10 +6066,10 @@
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A199" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>117</v>
+        <v>44</v>
       </c>
       <c r="C199" s="4">
         <v>43388.416666666664</v>
@@ -6071,10 +6083,10 @@
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A200" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C200" s="4">
         <v>43388.416666666664</v>
@@ -6088,13 +6100,13 @@
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A201" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>715</v>
+        <v>118</v>
       </c>
       <c r="C201" s="4">
-        <v>43386.833333333336</v>
+        <v>43388.416666666664</v>
       </c>
       <c r="D201" s="1">
         <v>20</v>
@@ -6105,10 +6117,10 @@
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A202" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>55</v>
+        <v>715</v>
       </c>
       <c r="C202" s="4">
         <v>43386.833333333336</v>
@@ -6122,10 +6134,10 @@
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A203" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C203" s="4">
         <v>43386.833333333336</v>
@@ -6139,13 +6151,13 @@
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A204" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>142</v>
+        <v>57</v>
       </c>
       <c r="C204" s="4">
-        <v>43384.375</v>
+        <v>43386.833333333336</v>
       </c>
       <c r="D204" s="1">
         <v>20</v>
@@ -6156,10 +6168,10 @@
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A205" s="2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>19</v>
+        <v>142</v>
       </c>
       <c r="C205" s="4">
         <v>43384.375</v>
@@ -6173,10 +6185,10 @@
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A206" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>721</v>
+        <v>19</v>
       </c>
       <c r="C206" s="4">
         <v>43384.375</v>
@@ -6190,13 +6202,13 @@
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A207" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>717</v>
+        <v>721</v>
       </c>
       <c r="C207" s="4">
-        <v>43380.125</v>
+        <v>43384.375</v>
       </c>
       <c r="D207" s="1">
         <v>20</v>
@@ -6207,10 +6219,10 @@
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A208" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>84</v>
+        <v>717</v>
       </c>
       <c r="C208" s="4">
         <v>43380.125</v>
@@ -6224,10 +6236,10 @@
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A209" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C209" s="4">
         <v>43380.125</v>
@@ -6241,13 +6253,13 @@
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A210" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>713</v>
+        <v>86</v>
       </c>
       <c r="C210" s="4">
-        <v>43377.625</v>
+        <v>43380.125</v>
       </c>
       <c r="D210" s="1">
         <v>20</v>
@@ -6258,10 +6270,10 @@
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A211" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>29</v>
+        <v>713</v>
       </c>
       <c r="C211" s="4">
         <v>43377.625</v>
@@ -6275,10 +6287,10 @@
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A212" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C212" s="4">
         <v>43377.625</v>
@@ -6292,13 +6304,13 @@
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A213" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>723</v>
+        <v>31</v>
       </c>
       <c r="C213" s="4">
-        <v>43374.041666666664</v>
+        <v>43377.625</v>
       </c>
       <c r="D213" s="1">
         <v>20</v>
@@ -6309,10 +6321,10 @@
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A214" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>719</v>
+        <v>723</v>
       </c>
       <c r="C214" s="4">
         <v>43374.041666666664</v>
@@ -6326,10 +6338,10 @@
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A215" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>712</v>
+        <v>719</v>
       </c>
       <c r="C215" s="4">
         <v>43374.041666666664</v>
@@ -6343,13 +6355,13 @@
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A216" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>58</v>
+        <v>712</v>
       </c>
       <c r="C216" s="4">
-        <v>43370.666666666664</v>
+        <v>43374.041666666664</v>
       </c>
       <c r="D216" s="1">
         <v>20</v>
@@ -6360,10 +6372,10 @@
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A217" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>135</v>
+        <v>58</v>
       </c>
       <c r="C217" s="4">
         <v>43370.666666666664</v>
@@ -6377,10 +6389,10 @@
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A218" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>76</v>
+        <v>135</v>
       </c>
       <c r="C218" s="4">
         <v>43370.666666666664</v>
@@ -6394,13 +6406,13 @@
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A219" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>714</v>
+        <v>76</v>
       </c>
       <c r="C219" s="4">
-        <v>43368.166666666664</v>
+        <v>43370.666666666664</v>
       </c>
       <c r="D219" s="1">
         <v>20</v>
@@ -6411,10 +6423,10 @@
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A220" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>49</v>
+        <v>714</v>
       </c>
       <c r="C220" s="4">
         <v>43368.166666666664</v>
@@ -6428,10 +6440,10 @@
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A221" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C221" s="4">
         <v>43368.166666666664</v>
@@ -6445,13 +6457,13 @@
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A222" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>722</v>
+        <v>50</v>
       </c>
       <c r="C222" s="4">
-        <v>43364</v>
+        <v>43368.166666666664</v>
       </c>
       <c r="D222" s="1">
         <v>20</v>
@@ -6462,10 +6474,10 @@
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A223" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>711</v>
+        <v>722</v>
       </c>
       <c r="C223" s="4">
         <v>43364</v>
@@ -6479,10 +6491,10 @@
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A224" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>105</v>
+        <v>711</v>
       </c>
       <c r="C224" s="4">
         <v>43364</v>
@@ -6496,13 +6508,13 @@
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A225" s="2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>42</v>
+        <v>105</v>
       </c>
       <c r="C225" s="4">
-        <v>43359.208333333336</v>
+        <v>43364</v>
       </c>
       <c r="D225" s="1">
         <v>20</v>
@@ -6513,10 +6525,10 @@
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A226" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C226" s="4">
         <v>43359.208333333336</v>
@@ -6530,10 +6542,10 @@
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A227" s="2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C227" s="4">
         <v>43359.208333333336</v>
@@ -6547,13 +6559,13 @@
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A228" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B228" s="2" t="s">
-        <v>717</v>
+        <v>44</v>
       </c>
       <c r="C228" s="4">
-        <v>43356.708333333336</v>
+        <v>43359.208333333336</v>
       </c>
       <c r="D228" s="1">
         <v>20</v>
@@ -6564,10 +6576,10 @@
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A229" s="2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B229" s="2" t="s">
-        <v>84</v>
+        <v>717</v>
       </c>
       <c r="C229" s="4">
         <v>43356.708333333336</v>
@@ -6581,10 +6593,10 @@
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A230" s="2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B230" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C230" s="4">
         <v>43356.708333333336</v>
@@ -6598,13 +6610,13 @@
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A231" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B231" s="2" t="s">
-        <v>708</v>
+        <v>86</v>
       </c>
       <c r="C231" s="4">
-        <v>43355.458333333336</v>
+        <v>43356.708333333336</v>
       </c>
       <c r="D231" s="1">
         <v>20</v>
@@ -6615,10 +6627,10 @@
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A232" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B232" s="2" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="C232" s="4">
         <v>43355.458333333336</v>
@@ -6632,10 +6644,10 @@
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A233" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B233" s="2" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="C233" s="4">
         <v>43355.458333333336</v>
@@ -6649,13 +6661,13 @@
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A234" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B234" s="2" t="s">
-        <v>33</v>
+        <v>710</v>
       </c>
       <c r="C234" s="4">
-        <v>43350.25</v>
+        <v>43355.458333333336</v>
       </c>
       <c r="D234" s="1">
         <v>20</v>
@@ -6666,10 +6678,10 @@
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A235" s="2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B235" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C235" s="4">
         <v>43350.25</v>
@@ -6683,10 +6695,10 @@
     </row>
     <row r="236" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A236" s="2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B236" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C236" s="4">
         <v>43350.25</v>
@@ -6700,13 +6712,13 @@
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A237" s="2" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B237" s="2" t="s">
-        <v>117</v>
+        <v>37</v>
       </c>
       <c r="C237" s="4">
-        <v>43346.75</v>
+        <v>43350.25</v>
       </c>
       <c r="D237" s="1">
         <v>20</v>
@@ -6717,10 +6729,10 @@
     </row>
     <row r="238" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A238" s="2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B238" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C238" s="4">
         <v>43346.75</v>
@@ -6734,10 +6746,10 @@
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A239" s="2" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B239" s="2" t="s">
-        <v>723</v>
+        <v>118</v>
       </c>
       <c r="C239" s="4">
         <v>43346.75</v>
@@ -6751,13 +6763,13 @@
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A240" s="2" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B240" s="2" t="s">
-        <v>12</v>
+        <v>723</v>
       </c>
       <c r="C240" s="4">
-        <v>43342.791666666664</v>
+        <v>43346.75</v>
       </c>
       <c r="D240" s="1">
         <v>20</v>
@@ -6768,10 +6780,10 @@
     </row>
     <row r="241" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A241" s="2" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B241" s="2" t="s">
-        <v>716</v>
+        <v>12</v>
       </c>
       <c r="C241" s="4">
         <v>43342.791666666664</v>
@@ -6785,10 +6797,10 @@
     </row>
     <row r="242" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A242" s="2" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B242" s="2" t="s">
-        <v>14</v>
+        <v>716</v>
       </c>
       <c r="C242" s="4">
         <v>43342.791666666664</v>
@@ -6802,13 +6814,13 @@
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A243" s="2" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B243" s="2" t="s">
-        <v>714</v>
+        <v>14</v>
       </c>
       <c r="C243" s="4">
-        <v>43339.291666666664</v>
+        <v>43342.791666666664</v>
       </c>
       <c r="D243" s="1">
         <v>20</v>
@@ -6819,10 +6831,10 @@
     </row>
     <row r="244" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A244" s="2" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B244" s="2" t="s">
-        <v>49</v>
+        <v>714</v>
       </c>
       <c r="C244" s="4">
         <v>43339.291666666664</v>
@@ -6836,10 +6848,10 @@
     </row>
     <row r="245" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A245" s="2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B245" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C245" s="4">
         <v>43339.291666666664</v>
@@ -6853,13 +6865,13 @@
     </row>
     <row r="246" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A246" s="2" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B246" s="2" t="s">
-        <v>715</v>
+        <v>50</v>
       </c>
       <c r="C246" s="4">
-        <v>43337.5</v>
+        <v>43339.291666666664</v>
       </c>
       <c r="D246" s="1">
         <v>20</v>
@@ -6870,10 +6882,10 @@
     </row>
     <row r="247" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A247" s="2" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B247" s="2" t="s">
-        <v>55</v>
+        <v>715</v>
       </c>
       <c r="C247" s="4">
         <v>43337.5</v>
@@ -6887,10 +6899,10 @@
     </row>
     <row r="248" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A248" s="2" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B248" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C248" s="4">
         <v>43337.5</v>
@@ -6904,13 +6916,13 @@
     </row>
     <row r="249" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A249" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B249" s="2" t="s">
-        <v>719</v>
+        <v>57</v>
       </c>
       <c r="C249" s="4">
-        <v>43331.541666666664</v>
+        <v>43337.5</v>
       </c>
       <c r="D249" s="1">
         <v>20</v>
@@ -6921,10 +6933,10 @@
     </row>
     <row r="250" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A250" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B250" s="2" t="s">
-        <v>712</v>
+        <v>719</v>
       </c>
       <c r="C250" s="4">
         <v>43331.541666666664</v>
@@ -6938,10 +6950,10 @@
     </row>
     <row r="251" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A251" s="2" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B251" s="2" t="s">
-        <v>42</v>
+        <v>712</v>
       </c>
       <c r="C251" s="4">
         <v>43331.541666666664</v>
@@ -6955,13 +6967,13 @@
     </row>
     <row r="252" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A252" s="2" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B252" s="2" t="s">
-        <v>720</v>
+        <v>42</v>
       </c>
       <c r="C252" s="4">
-        <v>43328.875</v>
+        <v>43331.541666666664</v>
       </c>
       <c r="D252" s="1">
         <v>20</v>
@@ -6972,10 +6984,10 @@
     </row>
     <row r="253" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A253" s="2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B253" s="2" t="s">
-        <v>713</v>
+        <v>720</v>
       </c>
       <c r="C253" s="4">
         <v>43328.875</v>
@@ -6989,10 +7001,10 @@
     </row>
     <row r="254" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A254" s="2" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B254" s="2" t="s">
-        <v>29</v>
+        <v>713</v>
       </c>
       <c r="C254" s="4">
         <v>43328.875</v>
@@ -7006,13 +7018,13 @@
     </row>
     <row r="255" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A255" s="2" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B255" s="2" t="s">
-        <v>717</v>
+        <v>29</v>
       </c>
       <c r="C255" s="4">
-        <v>43326.916666666664</v>
+        <v>43328.875</v>
       </c>
       <c r="D255" s="1">
         <v>20</v>
@@ -7023,10 +7035,10 @@
     </row>
     <row r="256" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A256" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B256" s="2" t="s">
-        <v>84</v>
+        <v>717</v>
       </c>
       <c r="C256" s="4">
         <v>43326.916666666664</v>
@@ -7040,10 +7052,10 @@
     </row>
     <row r="257" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A257" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B257" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C257" s="4">
         <v>43326.916666666664</v>
@@ -7057,13 +7069,13 @@
     </row>
     <row r="258" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A258" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B258" s="2" t="s">
-        <v>16</v>
+        <v>86</v>
       </c>
       <c r="C258" s="4">
-        <v>43322.583333333336</v>
+        <v>43326.916666666664</v>
       </c>
       <c r="D258" s="1">
         <v>20</v>
@@ -7074,10 +7086,10 @@
     </row>
     <row r="259" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A259" s="2" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B259" s="2" t="s">
-        <v>718</v>
+        <v>16</v>
       </c>
       <c r="C259" s="4">
         <v>43322.583333333336</v>
@@ -7091,10 +7103,10 @@
     </row>
     <row r="260" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A260" s="2" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B260" s="2" t="s">
-        <v>142</v>
+        <v>718</v>
       </c>
       <c r="C260" s="4">
         <v>43322.583333333336</v>
@@ -7108,13 +7120,13 @@
     </row>
     <row r="261" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A261" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B261" s="2" t="s">
-        <v>43</v>
+        <v>142</v>
       </c>
       <c r="C261" s="4">
-        <v>43320.333333333336</v>
+        <v>43322.583333333336</v>
       </c>
       <c r="D261" s="1">
         <v>20</v>
@@ -7125,10 +7137,10 @@
     </row>
     <row r="262" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A262" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B262" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C262" s="4">
         <v>43320.333333333336</v>
@@ -7142,10 +7154,10 @@
     </row>
     <row r="263" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A263" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B263" s="2" t="s">
-        <v>117</v>
+        <v>44</v>
       </c>
       <c r="C263" s="4">
         <v>43320.333333333336</v>
@@ -7159,13 +7171,13 @@
     </row>
     <row r="264" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A264" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B264" s="2" t="s">
-        <v>31</v>
+        <v>117</v>
       </c>
       <c r="C264" s="4">
-        <v>43317.083333333336</v>
+        <v>43320.333333333336</v>
       </c>
       <c r="D264" s="1">
         <v>20</v>
@@ -7176,10 +7188,10 @@
     </row>
     <row r="265" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A265" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B265" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C265" s="4">
         <v>43317.083333333336</v>
@@ -7193,10 +7205,10 @@
     </row>
     <row r="266" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A266" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B266" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C266" s="4">
         <v>43317.083333333336</v>
@@ -7210,13 +7222,13 @@
     </row>
     <row r="267" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A267" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B267" s="2" t="s">
-        <v>58</v>
+        <v>35</v>
       </c>
       <c r="C267" s="4">
-        <v>43312.958333333336</v>
+        <v>43317.083333333336</v>
       </c>
       <c r="D267" s="1">
         <v>20</v>
@@ -7227,10 +7239,10 @@
     </row>
     <row r="268" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A268" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B268" s="2" t="s">
-        <v>135</v>
+        <v>58</v>
       </c>
       <c r="C268" s="4">
         <v>43312.958333333336</v>
@@ -7244,10 +7256,10 @@
     </row>
     <row r="269" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A269" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B269" s="2" t="s">
-        <v>76</v>
+        <v>135</v>
       </c>
       <c r="C269" s="4">
         <v>43312.958333333336</v>
@@ -7261,13 +7273,13 @@
     </row>
     <row r="270" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A270" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B270" s="2" t="s">
-        <v>714</v>
+        <v>76</v>
       </c>
       <c r="C270" s="4">
-        <v>43309.416666666664</v>
+        <v>43312.958333333336</v>
       </c>
       <c r="D270" s="1">
         <v>20</v>
@@ -7278,10 +7290,10 @@
     </row>
     <row r="271" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A271" s="2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B271" s="2" t="s">
-        <v>49</v>
+        <v>714</v>
       </c>
       <c r="C271" s="4">
         <v>43309.416666666664</v>
@@ -7295,10 +7307,10 @@
     </row>
     <row r="272" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A272" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B272" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C272" s="4">
         <v>43309.416666666664</v>
@@ -7312,13 +7324,13 @@
     </row>
     <row r="273" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A273" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B273" s="2" t="s">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="C273" s="4">
-        <v>43303.833333333336</v>
+        <v>43309.416666666664</v>
       </c>
       <c r="D273" s="1">
         <v>20</v>
@@ -7329,10 +7341,10 @@
     </row>
     <row r="274" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A274" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B274" s="2" t="s">
-        <v>721</v>
+        <v>19</v>
       </c>
       <c r="C274" s="4">
         <v>43303.833333333336</v>
@@ -7346,10 +7358,10 @@
     </row>
     <row r="275" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A275" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B275" s="2" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="C275" s="4">
         <v>43303.833333333336</v>
@@ -7363,13 +7375,13 @@
     </row>
     <row r="276" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A276" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B276" s="2" t="s">
-        <v>118</v>
+        <v>722</v>
       </c>
       <c r="C276" s="4">
-        <v>43297.375</v>
+        <v>43303.833333333336</v>
       </c>
       <c r="D276" s="1">
         <v>20</v>
@@ -7380,10 +7392,10 @@
     </row>
     <row r="277" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A277" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B277" s="2" t="s">
-        <v>723</v>
+        <v>118</v>
       </c>
       <c r="C277" s="4">
         <v>43297.375</v>
@@ -7397,10 +7409,10 @@
     </row>
     <row r="278" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A278" s="2" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B278" s="2" t="s">
-        <v>719</v>
+        <v>723</v>
       </c>
       <c r="C278" s="4">
         <v>43297.375</v>
@@ -7414,13 +7426,13 @@
     </row>
     <row r="279" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A279" s="2" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B279" s="2" t="s">
-        <v>37</v>
+        <v>719</v>
       </c>
       <c r="C279" s="4">
-        <v>43295.125</v>
+        <v>43297.375</v>
       </c>
       <c r="D279" s="1">
         <v>20</v>
@@ -7431,10 +7443,10 @@
     </row>
     <row r="280" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A280" s="2" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B280" s="2" t="s">
-        <v>720</v>
+        <v>37</v>
       </c>
       <c r="C280" s="4">
         <v>43295.125</v>
@@ -7448,10 +7460,10 @@
     </row>
     <row r="281" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A281" s="2" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B281" s="2" t="s">
-        <v>713</v>
+        <v>720</v>
       </c>
       <c r="C281" s="4">
         <v>43295.125</v>
@@ -7465,13 +7477,13 @@
     </row>
     <row r="282" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A282" s="2" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B282" s="2" t="s">
-        <v>708</v>
+        <v>713</v>
       </c>
       <c r="C282" s="4">
-        <v>43290.625</v>
+        <v>43295.125</v>
       </c>
       <c r="D282" s="1">
         <v>20</v>
@@ -7482,10 +7494,10 @@
     </row>
     <row r="283" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A283" s="2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B283" s="2" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="C283" s="4">
         <v>43290.625</v>
@@ -7499,10 +7511,10 @@
     </row>
     <row r="284" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A284" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B284" s="2" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="C284" s="4">
         <v>43290.625</v>
@@ -7516,13 +7528,13 @@
     </row>
     <row r="285" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A285" s="2" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B285" s="2" t="s">
-        <v>717</v>
+        <v>710</v>
       </c>
       <c r="C285" s="4">
-        <v>43288.041666666664</v>
+        <v>43290.625</v>
       </c>
       <c r="D285" s="1">
         <v>20</v>
@@ -7533,10 +7545,10 @@
     </row>
     <row r="286" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A286" s="2" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B286" s="2" t="s">
-        <v>84</v>
+        <v>717</v>
       </c>
       <c r="C286" s="4">
         <v>43288.041666666664</v>
@@ -7550,10 +7562,10 @@
     </row>
     <row r="287" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A287" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B287" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C287" s="4">
         <v>43288.041666666664</v>
@@ -7567,13 +7579,13 @@
     </row>
     <row r="288" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A288" s="2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B288" s="2" t="s">
-        <v>711</v>
+        <v>86</v>
       </c>
       <c r="C288" s="4">
-        <v>43284.666666666664</v>
+        <v>43288.041666666664</v>
       </c>
       <c r="D288" s="1">
         <v>20</v>
@@ -7584,10 +7596,10 @@
     </row>
     <row r="289" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A289" s="2" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B289" s="2" t="s">
-        <v>105</v>
+        <v>711</v>
       </c>
       <c r="C289" s="4">
         <v>43284.666666666664</v>
@@ -7601,10 +7613,10 @@
     </row>
     <row r="290" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A290" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B290" s="2" t="s">
-        <v>12</v>
+        <v>105</v>
       </c>
       <c r="C290" s="4">
         <v>43284.666666666664</v>
@@ -7618,13 +7630,13 @@
     </row>
     <row r="291" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A291" s="2" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B291" s="2" t="s">
-        <v>712</v>
+        <v>12</v>
       </c>
       <c r="C291" s="4">
-        <v>43279.166666666664</v>
+        <v>43284.666666666664</v>
       </c>
       <c r="D291" s="1">
         <v>20</v>
@@ -7635,10 +7647,10 @@
     </row>
     <row r="292" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A292" s="2" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B292" s="2" t="s">
-        <v>42</v>
+        <v>712</v>
       </c>
       <c r="C292" s="4">
         <v>43279.166666666664</v>
@@ -7652,10 +7664,10 @@
     </row>
     <row r="293" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A293" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B293" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C293" s="4">
         <v>43279.166666666664</v>
@@ -7669,13 +7681,13 @@
     </row>
     <row r="294" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A294" s="2" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B294" s="2" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="C294" s="4">
-        <v>43273</v>
+        <v>43279.166666666664</v>
       </c>
       <c r="D294" s="1">
         <v>20</v>
@@ -7686,10 +7698,10 @@
     </row>
     <row r="295" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A295" s="2" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B295" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C295" s="4">
         <v>43273</v>
@@ -7703,10 +7715,10 @@
     </row>
     <row r="296" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A296" s="2" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B296" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C296" s="4">
         <v>43273</v>
@@ -7720,13 +7732,13 @@
     </row>
     <row r="297" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A297" s="2" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B297" s="2" t="s">
-        <v>714</v>
+        <v>33</v>
       </c>
       <c r="C297" s="4">
-        <v>43266.208333333336</v>
+        <v>43273</v>
       </c>
       <c r="D297" s="1">
         <v>20</v>
@@ -7737,10 +7749,10 @@
     </row>
     <row r="298" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A298" s="2" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B298" s="2" t="s">
-        <v>49</v>
+        <v>714</v>
       </c>
       <c r="C298" s="4">
         <v>43266.208333333336</v>
@@ -7754,10 +7766,10 @@
     </row>
     <row r="299" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A299" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B299" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C299" s="4">
         <v>43266.208333333336</v>
@@ -7771,13 +7783,13 @@
     </row>
     <row r="300" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A300" s="2" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B300" s="2" t="s">
-        <v>715</v>
+        <v>50</v>
       </c>
       <c r="C300" s="4">
-        <v>43263.708333333336</v>
+        <v>43266.208333333336</v>
       </c>
       <c r="D300" s="1">
         <v>20</v>
@@ -7788,10 +7800,10 @@
     </row>
     <row r="301" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A301" s="2" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B301" s="2" t="s">
-        <v>55</v>
+        <v>715</v>
       </c>
       <c r="C301" s="4">
         <v>43263.708333333336</v>
@@ -7805,10 +7817,10 @@
     </row>
     <row r="302" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A302" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B302" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C302" s="4">
         <v>43263.708333333336</v>
@@ -7822,13 +7834,13 @@
     </row>
     <row r="303" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A303" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B303" s="2" t="s">
-        <v>716</v>
+        <v>57</v>
       </c>
       <c r="C303" s="4">
-        <v>43259.458333333336</v>
+        <v>43263.708333333336</v>
       </c>
       <c r="D303" s="1">
         <v>20</v>
@@ -7839,10 +7851,10 @@
     </row>
     <row r="304" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A304" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B304" s="2" t="s">
-        <v>14</v>
+        <v>716</v>
       </c>
       <c r="C304" s="4">
         <v>43259.458333333336</v>
@@ -7856,10 +7868,10 @@
     </row>
     <row r="305" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A305" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B305" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C305" s="4">
         <v>43259.458333333336</v>
@@ -7873,13 +7885,13 @@
     </row>
     <row r="306" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A306" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B306" s="2" t="s">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="C306" s="4">
-        <v>43256.25</v>
+        <v>43259.458333333336</v>
       </c>
       <c r="D306" s="1">
         <v>20</v>
@@ -7890,10 +7902,10 @@
     </row>
     <row r="307" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A307" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B307" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C307" s="4">
         <v>43256.25</v>
@@ -7907,10 +7919,10 @@
     </row>
     <row r="308" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A308" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B308" s="2" t="s">
-        <v>720</v>
+        <v>37</v>
       </c>
       <c r="C308" s="4">
         <v>43256.25</v>
@@ -7924,13 +7936,13 @@
     </row>
     <row r="309" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A309" s="2" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B309" s="2" t="s">
-        <v>717</v>
+        <v>720</v>
       </c>
       <c r="C309" s="4">
-        <v>43252.75</v>
+        <v>43256.25</v>
       </c>
       <c r="D309" s="1">
         <v>20</v>
@@ -7941,10 +7953,10 @@
     </row>
     <row r="310" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A310" s="2" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B310" s="2" t="s">
-        <v>84</v>
+        <v>717</v>
       </c>
       <c r="C310" s="4">
         <v>43252.75</v>
@@ -7958,10 +7970,10 @@
     </row>
     <row r="311" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A311" s="2" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B311" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C311" s="4">
         <v>43252.75</v>
@@ -7975,13 +7987,13 @@
     </row>
     <row r="312" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A312" s="2" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B312" s="2" t="s">
-        <v>44</v>
+        <v>86</v>
       </c>
       <c r="C312" s="4">
-        <v>43250.791666666664</v>
+        <v>43252.75</v>
       </c>
       <c r="D312" s="1">
         <v>20</v>
@@ -7992,10 +8004,10 @@
     </row>
     <row r="313" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A313" s="2" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B313" s="2" t="s">
-        <v>117</v>
+        <v>44</v>
       </c>
       <c r="C313" s="4">
         <v>43250.791666666664</v>
@@ -8009,10 +8021,10 @@
     </row>
     <row r="314" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A314" s="2" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B314" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C314" s="4">
         <v>43250.791666666664</v>
@@ -8026,13 +8038,13 @@
     </row>
     <row r="315" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A315" s="2" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B315" s="2" t="s">
-        <v>58</v>
+        <v>118</v>
       </c>
       <c r="C315" s="4">
-        <v>43247.291666666664</v>
+        <v>43250.791666666664</v>
       </c>
       <c r="D315" s="1">
         <v>20</v>
@@ -8043,10 +8055,10 @@
     </row>
     <row r="316" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A316" s="2" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B316" s="2" t="s">
-        <v>135</v>
+        <v>58</v>
       </c>
       <c r="C316" s="4">
         <v>43247.291666666664</v>
@@ -8060,10 +8072,10 @@
     </row>
     <row r="317" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A317" s="2" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B317" s="2" t="s">
-        <v>76</v>
+        <v>135</v>
       </c>
       <c r="C317" s="4">
         <v>43247.291666666664</v>
@@ -8077,13 +8089,13 @@
     </row>
     <row r="318" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A318" s="2" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B318" s="2" t="s">
-        <v>718</v>
+        <v>76</v>
       </c>
       <c r="C318" s="4">
-        <v>43243.5</v>
+        <v>43247.291666666664</v>
       </c>
       <c r="D318" s="1">
         <v>20</v>
@@ -8094,10 +8106,10 @@
     </row>
     <row r="319" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A319" s="2" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B319" s="2" t="s">
-        <v>142</v>
+        <v>718</v>
       </c>
       <c r="C319" s="4">
         <v>43243.5</v>
@@ -8111,10 +8123,10 @@
     </row>
     <row r="320" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A320" s="2" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B320" s="2" t="s">
-        <v>19</v>
+        <v>142</v>
       </c>
       <c r="C320" s="4">
         <v>43243.5</v>
@@ -8128,13 +8140,13 @@
     </row>
     <row r="321" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A321" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B321" s="2" t="s">
-        <v>714</v>
+        <v>19</v>
       </c>
       <c r="C321" s="4">
-        <v>43240.541666666664</v>
+        <v>43243.5</v>
       </c>
       <c r="D321" s="1">
         <v>20</v>
@@ -8145,10 +8157,10 @@
     </row>
     <row r="322" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A322" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B322" s="2" t="s">
-        <v>49</v>
+        <v>714</v>
       </c>
       <c r="C322" s="4">
         <v>43240.541666666664</v>
@@ -8162,10 +8174,10 @@
     </row>
     <row r="323" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A323" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B323" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C323" s="4">
         <v>43240.541666666664</v>
@@ -8179,13 +8191,13 @@
     </row>
     <row r="324" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A324" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B324" s="2" t="s">
-        <v>723</v>
+        <v>50</v>
       </c>
       <c r="C324" s="4">
-        <v>43236.875</v>
+        <v>43240.541666666664</v>
       </c>
       <c r="D324" s="1">
         <v>20</v>
@@ -8196,10 +8208,10 @@
     </row>
     <row r="325" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A325" s="2" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B325" s="2" t="s">
-        <v>719</v>
+        <v>723</v>
       </c>
       <c r="C325" s="4">
         <v>43236.875</v>
@@ -8213,10 +8225,10 @@
     </row>
     <row r="326" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A326" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B326" s="2" t="s">
-        <v>712</v>
+        <v>719</v>
       </c>
       <c r="C326" s="4">
         <v>43236.875</v>
@@ -8230,13 +8242,13 @@
     </row>
     <row r="327" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A327" s="2" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B327" s="2" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="C327" s="4">
-        <v>43235.916666666664</v>
+        <v>43236.875</v>
       </c>
       <c r="D327" s="1">
         <v>20</v>
@@ -8247,10 +8259,10 @@
     </row>
     <row r="328" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A328" s="2" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B328" s="2" t="s">
-        <v>29</v>
+        <v>713</v>
       </c>
       <c r="C328" s="4">
         <v>43235.916666666664</v>
@@ -8264,10 +8276,10 @@
     </row>
     <row r="329" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A329" s="2" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B329" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C329" s="4">
         <v>43235.916666666664</v>
@@ -8281,13 +8293,13 @@
     </row>
     <row r="330" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A330" s="2" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B330" s="2" t="s">
-        <v>708</v>
+        <v>31</v>
       </c>
       <c r="C330" s="4">
-        <v>43229.583333333336</v>
+        <v>43235.916666666664</v>
       </c>
       <c r="D330" s="1">
         <v>20</v>
@@ -8298,10 +8310,10 @@
     </row>
     <row r="331" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A331" s="2" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B331" s="2" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="C331" s="4">
         <v>43229.583333333336</v>
@@ -8315,10 +8327,10 @@
     </row>
     <row r="332" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A332" s="2" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B332" s="2" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="C332" s="4">
         <v>43229.583333333336</v>
@@ -8332,13 +8344,13 @@
     </row>
     <row r="333" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A333" s="2" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B333" s="2" t="s">
-        <v>42</v>
+        <v>710</v>
       </c>
       <c r="C333" s="4">
-        <v>43225.333333333336</v>
+        <v>43229.583333333336</v>
       </c>
       <c r="D333" s="1">
         <v>20</v>
@@ -8349,10 +8361,10 @@
     </row>
     <row r="334" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A334" s="2" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B334" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C334" s="4">
         <v>43225.333333333336</v>
@@ -8366,10 +8378,10 @@
     </row>
     <row r="335" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A335" s="2" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B335" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C335" s="4">
         <v>43225.333333333336</v>
@@ -8383,13 +8395,13 @@
     </row>
     <row r="336" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A336" s="2" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B336" s="2" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="C336" s="4">
-        <v>43222.083333333336</v>
+        <v>43225.333333333336</v>
       </c>
       <c r="D336" s="1">
         <v>20</v>
@@ -8400,10 +8412,10 @@
     </row>
     <row r="337" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A337" s="2" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B337" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C337" s="4">
         <v>43222.083333333336</v>
@@ -8417,10 +8429,10 @@
     </row>
     <row r="338" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A338" s="2" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B338" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C338" s="4">
         <v>43222.083333333336</v>
@@ -8434,13 +8446,13 @@
     </row>
     <row r="339" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A339" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B339" s="2" t="s">
-        <v>721</v>
+        <v>37</v>
       </c>
       <c r="C339" s="4">
-        <v>43218.416666666664</v>
+        <v>43222.083333333336</v>
       </c>
       <c r="D339" s="1">
         <v>20</v>
@@ -8451,10 +8463,10 @@
     </row>
     <row r="340" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A340" s="2" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B340" s="2" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="C340" s="4">
         <v>43218.416666666664</v>
@@ -8468,10 +8480,10 @@
     </row>
     <row r="341" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A341" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B341" s="2" t="s">
-        <v>711</v>
+        <v>722</v>
       </c>
       <c r="C341" s="4">
         <v>43218.416666666664</v>
@@ -8485,13 +8497,13 @@
     </row>
     <row r="342" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A342" s="2" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B342" s="2" t="s">
-        <v>715</v>
+        <v>711</v>
       </c>
       <c r="C342" s="4">
-        <v>43211.833333333336</v>
+        <v>43218.416666666664</v>
       </c>
       <c r="D342" s="1">
         <v>20</v>
@@ -8502,10 +8514,10 @@
     </row>
     <row r="343" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A343" s="2" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B343" s="2" t="s">
-        <v>55</v>
+        <v>715</v>
       </c>
       <c r="C343" s="4">
         <v>43211.833333333336</v>
@@ -8519,10 +8531,10 @@
     </row>
     <row r="344" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A344" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B344" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C344" s="4">
         <v>43211.833333333336</v>
@@ -8536,13 +8548,13 @@
     </row>
     <row r="345" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A345" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B345" s="2" t="s">
-        <v>117</v>
+        <v>57</v>
       </c>
       <c r="C345" s="4">
-        <v>43206.375</v>
+        <v>43211.833333333336</v>
       </c>
       <c r="D345" s="1">
         <v>20</v>
@@ -8553,10 +8565,10 @@
     </row>
     <row r="346" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A346" s="2" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B346" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C346" s="4">
         <v>43206.375</v>
@@ -8570,10 +8582,10 @@
     </row>
     <row r="347" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A347" s="2" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B347" s="2" t="s">
-        <v>723</v>
+        <v>118</v>
       </c>
       <c r="C347" s="4">
         <v>43206.375</v>
@@ -8587,13 +8599,13 @@
     </row>
     <row r="348" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A348" s="2" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B348" s="2" t="s">
-        <v>720</v>
+        <v>723</v>
       </c>
       <c r="C348" s="4">
-        <v>43204.125</v>
+        <v>43206.375</v>
       </c>
       <c r="D348" s="1">
         <v>20</v>
@@ -8604,10 +8616,10 @@
     </row>
     <row r="349" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A349" s="2" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B349" s="2" t="s">
-        <v>713</v>
+        <v>720</v>
       </c>
       <c r="C349" s="4">
         <v>43204.125</v>
@@ -8621,10 +8633,10 @@
     </row>
     <row r="350" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A350" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B350" s="2" t="s">
-        <v>29</v>
+        <v>713</v>
       </c>
       <c r="C350" s="4">
         <v>43204.125</v>
@@ -8638,13 +8650,13 @@
     </row>
     <row r="351" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A351" s="2" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B351" s="2" t="s">
-        <v>714</v>
+        <v>29</v>
       </c>
       <c r="C351" s="4">
-        <v>43200.625</v>
+        <v>43204.125</v>
       </c>
       <c r="D351" s="1">
         <v>20</v>
@@ -8655,10 +8667,10 @@
     </row>
     <row r="352" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A352" s="2" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B352" s="2" t="s">
-        <v>49</v>
+        <v>714</v>
       </c>
       <c r="C352" s="4">
         <v>43200.625</v>
@@ -8672,10 +8684,10 @@
     </row>
     <row r="353" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A353" s="2" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B353" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C353" s="4">
         <v>43200.625</v>
@@ -8689,13 +8701,13 @@
     </row>
     <row r="354" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A354" s="2" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B354" s="2" t="s">
-        <v>105</v>
+        <v>50</v>
       </c>
       <c r="C354" s="4">
-        <v>43198.041666666664</v>
+        <v>43200.625</v>
       </c>
       <c r="D354" s="1">
         <v>20</v>
@@ -8706,10 +8718,10 @@
     </row>
     <row r="355" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A355" s="2" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B355" s="2" t="s">
-        <v>12</v>
+        <v>105</v>
       </c>
       <c r="C355" s="4">
         <v>43198.041666666664</v>
@@ -8723,10 +8735,10 @@
     </row>
     <row r="356" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A356" s="2" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B356" s="2" t="s">
-        <v>716</v>
+        <v>12</v>
       </c>
       <c r="C356" s="4">
         <v>43198.041666666664</v>
@@ -8740,13 +8752,13 @@
     </row>
     <row r="357" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A357" s="2" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B357" s="2" t="s">
-        <v>58</v>
+        <v>716</v>
       </c>
       <c r="C357" s="4">
-        <v>43191.666666666664</v>
+        <v>43198.041666666664</v>
       </c>
       <c r="D357" s="1">
         <v>20</v>
@@ -8757,10 +8769,10 @@
     </row>
     <row r="358" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A358" s="2" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B358" s="2" t="s">
-        <v>135</v>
+        <v>58</v>
       </c>
       <c r="C358" s="4">
         <v>43191.666666666664</v>
@@ -8774,10 +8786,10 @@
     </row>
     <row r="359" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A359" s="2" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B359" s="2" t="s">
-        <v>76</v>
+        <v>135</v>
       </c>
       <c r="C359" s="4">
         <v>43191.666666666664</v>
@@ -8791,13 +8803,13 @@
     </row>
     <row r="360" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A360" s="2" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B360" s="2" t="s">
-        <v>31</v>
+        <v>76</v>
       </c>
       <c r="C360" s="4">
-        <v>43189.166666666664</v>
+        <v>43191.666666666664</v>
       </c>
       <c r="D360" s="1">
         <v>20</v>
@@ -8808,10 +8820,10 @@
     </row>
     <row r="361" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A361" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B361" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C361" s="4">
         <v>43189.166666666664</v>
@@ -8825,10 +8837,10 @@
     </row>
     <row r="362" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A362" s="2" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B362" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C362" s="4">
         <v>43189.166666666664</v>
@@ -8842,13 +8854,13 @@
     </row>
     <row r="363" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A363" s="2" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B363" s="2" t="s">
-        <v>717</v>
+        <v>35</v>
       </c>
       <c r="C363" s="4">
-        <v>43187</v>
+        <v>43189.166666666664</v>
       </c>
       <c r="D363" s="1">
         <v>20</v>
@@ -8859,10 +8871,10 @@
     </row>
     <row r="364" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A364" s="2" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B364" s="2" t="s">
-        <v>84</v>
+        <v>717</v>
       </c>
       <c r="C364" s="4">
         <v>43187</v>
@@ -8876,10 +8888,10 @@
     </row>
     <row r="365" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A365" s="2" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B365" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C365" s="4">
         <v>43187</v>
@@ -8893,13 +8905,13 @@
     </row>
     <row r="366" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A366" s="2" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B366" s="2" t="s">
-        <v>708</v>
+        <v>86</v>
       </c>
       <c r="C366" s="4">
-        <v>43184.208333333336</v>
+        <v>43187</v>
       </c>
       <c r="D366" s="1">
         <v>20</v>
@@ -8910,10 +8922,10 @@
     </row>
     <row r="367" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A367" s="2" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B367" s="2" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="C367" s="4">
         <v>43184.208333333336</v>
@@ -8927,10 +8939,10 @@
     </row>
     <row r="368" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A368" s="2" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B368" s="2" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="C368" s="4">
         <v>43184.208333333336</v>
@@ -8944,13 +8956,13 @@
     </row>
     <row r="369" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A369" s="2" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B369" s="2" t="s">
-        <v>14</v>
+        <v>710</v>
       </c>
       <c r="C369" s="4">
-        <v>43178.708333333336</v>
+        <v>43184.208333333336</v>
       </c>
       <c r="D369" s="1">
         <v>20</v>
@@ -8961,10 +8973,10 @@
     </row>
     <row r="370" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A370" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B370" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C370" s="4">
         <v>43178.708333333336</v>
@@ -8978,10 +8990,10 @@
     </row>
     <row r="371" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A371" s="2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B371" s="2" t="s">
-        <v>718</v>
+        <v>16</v>
       </c>
       <c r="C371" s="4">
         <v>43178.708333333336</v>
@@ -8995,13 +9007,13 @@
     </row>
     <row r="372" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A372" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B372" s="2" t="s">
-        <v>37</v>
+        <v>718</v>
       </c>
       <c r="C372" s="4">
-        <v>43175.458333333336</v>
+        <v>43178.708333333336</v>
       </c>
       <c r="D372" s="1">
         <v>20</v>
@@ -9012,10 +9024,10 @@
     </row>
     <row r="373" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A373" s="2" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B373" s="2" t="s">
-        <v>720</v>
+        <v>37</v>
       </c>
       <c r="C373" s="4">
         <v>43175.458333333336</v>
@@ -9029,10 +9041,10 @@
     </row>
     <row r="374" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A374" s="2" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B374" s="2" t="s">
-        <v>713</v>
+        <v>720</v>
       </c>
       <c r="C374" s="4">
         <v>43175.458333333336</v>
@@ -9046,13 +9058,13 @@
     </row>
     <row r="375" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A375" s="2" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B375" s="2" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="C375" s="4">
-        <v>43173.25</v>
+        <v>43175.458333333336</v>
       </c>
       <c r="D375" s="1">
         <v>20</v>
@@ -9063,10 +9075,10 @@
     </row>
     <row r="376" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A376" s="2" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B376" s="2" t="s">
-        <v>49</v>
+        <v>714</v>
       </c>
       <c r="C376" s="4">
         <v>43173.25</v>
@@ -9080,10 +9092,10 @@
     </row>
     <row r="377" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A377" s="2" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B377" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C377" s="4">
         <v>43173.25</v>
@@ -9097,13 +9109,13 @@
     </row>
     <row r="378" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A378" s="2" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B378" s="2" t="s">
-        <v>719</v>
+        <v>50</v>
       </c>
       <c r="C378" s="4">
-        <v>43169.75</v>
+        <v>43173.25</v>
       </c>
       <c r="D378" s="1">
         <v>20</v>
@@ -9114,10 +9126,10 @@
     </row>
     <row r="379" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A379" s="2" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B379" s="2" t="s">
-        <v>712</v>
+        <v>719</v>
       </c>
       <c r="C379" s="4">
         <v>43169.75</v>
@@ -9131,10 +9143,10 @@
     </row>
     <row r="380" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A380" s="2" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B380" s="2" t="s">
-        <v>42</v>
+        <v>712</v>
       </c>
       <c r="C380" s="4">
         <v>43169.75</v>
@@ -9148,13 +9160,13 @@
     </row>
     <row r="381" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A381" s="2" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B381" s="2" t="s">
-        <v>715</v>
+        <v>42</v>
       </c>
       <c r="C381" s="4">
-        <v>43167.791666666664</v>
+        <v>43169.75</v>
       </c>
       <c r="D381" s="1">
         <v>20</v>
@@ -9165,10 +9177,10 @@
     </row>
     <row r="382" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A382" s="2" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B382" s="2" t="s">
-        <v>55</v>
+        <v>715</v>
       </c>
       <c r="C382" s="4">
         <v>43167.791666666664</v>
@@ -9182,10 +9194,10 @@
     </row>
     <row r="383" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A383" s="2" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B383" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C383" s="4">
         <v>43167.791666666664</v>
@@ -9199,13 +9211,13 @@
     </row>
     <row r="384" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A384" s="2" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B384" s="2" t="s">
-        <v>142</v>
+        <v>57</v>
       </c>
       <c r="C384" s="4">
-        <v>43164.291666666664</v>
+        <v>43167.791666666664</v>
       </c>
       <c r="D384" s="1">
         <v>20</v>
@@ -9216,10 +9228,10 @@
     </row>
     <row r="385" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A385" s="2" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B385" s="2" t="s">
-        <v>19</v>
+        <v>142</v>
       </c>
       <c r="C385" s="4">
         <v>43164.291666666664</v>
@@ -9233,10 +9245,10 @@
     </row>
     <row r="386" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A386" s="2" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B386" s="2" t="s">
-        <v>721</v>
+        <v>19</v>
       </c>
       <c r="C386" s="4">
         <v>43164.291666666664</v>
@@ -9250,13 +9262,13 @@
     </row>
     <row r="387" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A387" s="2" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B387" s="2" t="s">
-        <v>717</v>
+        <v>721</v>
       </c>
       <c r="C387" s="4">
-        <v>43159.666666666664</v>
+        <v>43164.291666666664</v>
       </c>
       <c r="D387" s="1">
         <v>20</v>
@@ -9267,10 +9279,10 @@
     </row>
     <row r="388" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A388" s="2" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B388" s="2" t="s">
-        <v>84</v>
+        <v>717</v>
       </c>
       <c r="C388" s="4">
         <v>43159.666666666664</v>
@@ -9284,10 +9296,10 @@
     </row>
     <row r="389" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A389" s="2" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B389" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C389" s="4">
         <v>43159.666666666664</v>
@@ -9301,13 +9313,13 @@
     </row>
     <row r="390" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A390" s="2" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B390" s="2" t="s">
-        <v>43</v>
+        <v>86</v>
       </c>
       <c r="C390" s="4">
-        <v>43159.541666666664</v>
+        <v>43159.666666666664</v>
       </c>
       <c r="D390" s="1">
         <v>20</v>
@@ -9318,10 +9330,10 @@
     </row>
     <row r="391" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A391" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B391" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C391" s="4">
         <v>43159.541666666664</v>
@@ -9335,10 +9347,10 @@
     </row>
     <row r="392" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A392" s="2" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B392" s="2" t="s">
-        <v>117</v>
+        <v>44</v>
       </c>
       <c r="C392" s="4">
         <v>43159.541666666664</v>
@@ -9352,13 +9364,13 @@
     </row>
     <row r="393" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A393" s="2" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B393" s="2" t="s">
-        <v>29</v>
+        <v>117</v>
       </c>
       <c r="C393" s="4">
-        <v>43153.875</v>
+        <v>43159.541666666664</v>
       </c>
       <c r="D393" s="1">
         <v>20</v>
@@ -9369,10 +9381,10 @@
     </row>
     <row r="394" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A394" s="2" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B394" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C394" s="4">
         <v>43153.875</v>
@@ -9386,10 +9398,10 @@
     </row>
     <row r="395" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A395" s="2" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B395" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C395" s="4">
         <v>43153.875</v>
@@ -9403,13 +9415,13 @@
     </row>
     <row r="396" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A396" s="2" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B396" s="2" t="s">
-        <v>58</v>
+        <v>33</v>
       </c>
       <c r="C396" s="4">
-        <v>43151.916666666664</v>
+        <v>43153.875</v>
       </c>
       <c r="D396" s="1">
         <v>20</v>
@@ -9420,10 +9432,10 @@
     </row>
     <row r="397" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A397" s="2" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B397" s="2" t="s">
-        <v>135</v>
+        <v>58</v>
       </c>
       <c r="C397" s="4">
         <v>43151.916666666664</v>
@@ -9437,10 +9449,10 @@
     </row>
     <row r="398" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A398" s="2" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B398" s="2" t="s">
-        <v>76</v>
+        <v>135</v>
       </c>
       <c r="C398" s="4">
         <v>43151.916666666664</v>
@@ -9454,13 +9466,13 @@
     </row>
     <row r="399" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A399" s="2" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B399" s="2" t="s">
-        <v>118</v>
+        <v>76</v>
       </c>
       <c r="C399" s="4">
-        <v>43146.583333333336</v>
+        <v>43151.916666666664</v>
       </c>
       <c r="D399" s="1">
         <v>20</v>
@@ -9471,10 +9483,10 @@
     </row>
     <row r="400" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A400" s="2" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B400" s="2" t="s">
-        <v>723</v>
+        <v>118</v>
       </c>
       <c r="C400" s="4">
         <v>43146.583333333336</v>
@@ -9488,10 +9500,10 @@
     </row>
     <row r="401" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A401" s="2" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B401" s="2" t="s">
-        <v>719</v>
+        <v>723</v>
       </c>
       <c r="C401" s="4">
         <v>43146.583333333336</v>
@@ -9505,13 +9517,13 @@
     </row>
     <row r="402" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A402" s="2" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B402" s="2" t="s">
-        <v>35</v>
+        <v>719</v>
       </c>
       <c r="C402" s="4">
-        <v>43145.333333333336</v>
+        <v>43146.583333333336</v>
       </c>
       <c r="D402" s="1">
         <v>20</v>
@@ -9522,10 +9534,10 @@
     </row>
     <row r="403" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A403" s="2" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B403" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C403" s="4">
         <v>43145.333333333336</v>
@@ -9539,10 +9551,10 @@
     </row>
     <row r="404" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A404" s="2" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B404" s="2" t="s">
-        <v>720</v>
+        <v>37</v>
       </c>
       <c r="C404" s="4">
         <v>43145.333333333336</v>
@@ -9556,13 +9568,13 @@
     </row>
     <row r="405" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A405" s="2" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B405" s="2" t="s">
-        <v>714</v>
+        <v>720</v>
       </c>
       <c r="C405" s="4">
-        <v>43139.083333333336</v>
+        <v>43145.333333333336</v>
       </c>
       <c r="D405" s="1">
         <v>20</v>
@@ -9573,10 +9585,10 @@
     </row>
     <row r="406" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A406" s="2" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B406" s="2" t="s">
-        <v>49</v>
+        <v>714</v>
       </c>
       <c r="C406" s="4">
         <v>43139.083333333336</v>
@@ -9590,10 +9602,10 @@
     </row>
     <row r="407" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A407" s="2" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B407" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C407" s="4">
         <v>43139.083333333336</v>
@@ -9607,13 +9619,13 @@
     </row>
     <row r="408" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A408" s="2" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B408" s="2" t="s">
-        <v>722</v>
+        <v>50</v>
       </c>
       <c r="C408" s="4">
-        <v>43137.958333333336</v>
+        <v>43139.083333333336</v>
       </c>
       <c r="D408" s="1">
         <v>20</v>
@@ -9624,10 +9636,10 @@
     </row>
     <row r="409" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A409" s="2" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B409" s="2" t="s">
-        <v>711</v>
+        <v>722</v>
       </c>
       <c r="C409" s="4">
         <v>43137.958333333336</v>
@@ -9641,10 +9653,10 @@
     </row>
     <row r="410" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A410" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B410" s="2" t="s">
-        <v>105</v>
+        <v>711</v>
       </c>
       <c r="C410" s="4">
         <v>43137.958333333336</v>
@@ -9658,13 +9670,13 @@
     </row>
     <row r="411" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A411" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B411" s="2" t="s">
-        <v>708</v>
+        <v>105</v>
       </c>
       <c r="C411" s="4">
-        <v>43133.416666666664</v>
+        <v>43137.958333333336</v>
       </c>
       <c r="D411" s="1">
         <v>20</v>
@@ -9675,10 +9687,10 @@
     </row>
     <row r="412" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A412" s="2" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B412" s="2" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="C412" s="4">
         <v>43133.416666666664</v>
@@ -9692,10 +9704,10 @@
     </row>
     <row r="413" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A413" s="2" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B413" s="2" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="C413" s="4">
         <v>43133.416666666664</v>
@@ -9709,13 +9721,13 @@
     </row>
     <row r="414" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A414" s="2" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B414" s="2" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="C414" s="4">
-        <v>43132.833333333336</v>
+        <v>43133.416666666664</v>
       </c>
       <c r="D414" s="1">
         <v>20</v>
@@ -9726,10 +9738,10 @@
     </row>
     <row r="415" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A415" s="2" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B415" s="2" t="s">
-        <v>42</v>
+        <v>712</v>
       </c>
       <c r="C415" s="4">
         <v>43132.833333333336</v>
@@ -9743,10 +9755,10 @@
     </row>
     <row r="416" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A416" s="2" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B416" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C416" s="4">
         <v>43132.833333333336</v>
@@ -9760,13 +9772,13 @@
     </row>
     <row r="417" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A417" s="2" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B417" s="2" t="s">
-        <v>713</v>
+        <v>43</v>
       </c>
       <c r="C417" s="4">
-        <v>43131.375</v>
+        <v>43132.833333333336</v>
       </c>
       <c r="D417" s="1">
         <v>20</v>
@@ -9777,10 +9789,10 @@
     </row>
     <row r="418" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A418" s="2" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B418" s="2" t="s">
-        <v>29</v>
+        <v>713</v>
       </c>
       <c r="C418" s="4">
         <v>43131.375</v>
@@ -9794,10 +9806,10 @@
     </row>
     <row r="419" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A419" s="2" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B419" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C419" s="4">
         <v>43131.375</v>
@@ -9811,13 +9823,13 @@
     </row>
     <row r="420" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A420" s="2" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B420" s="2" t="s">
-        <v>717</v>
+        <v>31</v>
       </c>
       <c r="C420" s="4">
-        <v>43128.125</v>
+        <v>43131.375</v>
       </c>
       <c r="D420" s="1">
         <v>20</v>
@@ -9828,10 +9840,10 @@
     </row>
     <row r="421" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A421" s="2" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B421" s="2" t="s">
-        <v>84</v>
+        <v>717</v>
       </c>
       <c r="C421" s="4">
         <v>43128.125</v>
@@ -9845,10 +9857,10 @@
     </row>
     <row r="422" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A422" s="2" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B422" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C422" s="4">
         <v>43128.125</v>
@@ -9862,13 +9874,13 @@
     </row>
     <row r="423" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A423" s="2" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B423" s="2" t="s">
-        <v>12</v>
+        <v>86</v>
       </c>
       <c r="C423" s="4">
-        <v>43121.625</v>
+        <v>43128.125</v>
       </c>
       <c r="D423" s="1">
         <v>20</v>
@@ -9879,10 +9891,10 @@
     </row>
     <row r="424" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A424" s="2" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B424" s="2" t="s">
-        <v>716</v>
+        <v>12</v>
       </c>
       <c r="C424" s="4">
         <v>43121.625</v>
@@ -9896,10 +9908,10 @@
     </row>
     <row r="425" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A425" s="2" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B425" s="2" t="s">
-        <v>14</v>
+        <v>716</v>
       </c>
       <c r="C425" s="4">
         <v>43121.625</v>
@@ -9913,13 +9925,13 @@
     </row>
     <row r="426" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A426" s="2" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B426" s="2" t="s">
-        <v>715</v>
+        <v>14</v>
       </c>
       <c r="C426" s="4">
-        <v>43116.041666666664</v>
+        <v>43121.625</v>
       </c>
       <c r="D426" s="1">
         <v>20</v>
@@ -9930,10 +9942,10 @@
     </row>
     <row r="427" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A427" s="2" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B427" s="2" t="s">
-        <v>55</v>
+        <v>715</v>
       </c>
       <c r="C427" s="4">
         <v>43116.041666666664</v>
@@ -9947,10 +9959,10 @@
     </row>
     <row r="428" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A428" s="2" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B428" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C428" s="4">
         <v>43116.041666666664</v>
@@ -9964,13 +9976,13 @@
     </row>
     <row r="429" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A429" s="2" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B429" s="2" t="s">
-        <v>33</v>
+        <v>57</v>
       </c>
       <c r="C429" s="4">
-        <v>43114.666666666664</v>
+        <v>43116.041666666664</v>
       </c>
       <c r="D429" s="1">
         <v>20</v>
@@ -9981,10 +9993,10 @@
     </row>
     <row r="430" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A430" s="2" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B430" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C430" s="4">
         <v>43114.666666666664</v>
@@ -9998,10 +10010,10 @@
     </row>
     <row r="431" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A431" s="2" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B431" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C431" s="4">
         <v>43114.666666666664</v>
@@ -10015,13 +10027,13 @@
     </row>
     <row r="432" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A432" s="2" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B432" s="2" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="C432" s="4">
-        <v>43110.166666666664</v>
+        <v>43114.666666666664</v>
       </c>
       <c r="D432" s="1">
         <v>20</v>
@@ -10032,10 +10044,10 @@
     </row>
     <row r="433" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A433" s="2" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B433" s="2" t="s">
-        <v>117</v>
+        <v>44</v>
       </c>
       <c r="C433" s="4">
         <v>43110.166666666664</v>
@@ -10049,10 +10061,10 @@
     </row>
     <row r="434" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A434" s="2" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B434" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C434" s="4">
         <v>43110.166666666664</v>
@@ -10066,13 +10078,13 @@
     </row>
     <row r="435" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A435" s="2" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B435" s="2" t="s">
-        <v>58</v>
+        <v>118</v>
       </c>
       <c r="C435" s="4">
-        <v>43109</v>
+        <v>43110.166666666664</v>
       </c>
       <c r="D435" s="1">
         <v>20</v>
@@ -10083,10 +10095,10 @@
     </row>
     <row r="436" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A436" s="2" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B436" s="2" t="s">
-        <v>135</v>
+        <v>58</v>
       </c>
       <c r="C436" s="4">
         <v>43109</v>
@@ -10100,10 +10112,10 @@
     </row>
     <row r="437" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A437" s="2" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B437" s="2" t="s">
-        <v>76</v>
+        <v>135</v>
       </c>
       <c r="C437" s="4">
         <v>43109</v>
@@ -10117,13 +10129,13 @@
     </row>
     <row r="438" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A438" s="2" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B438" s="2" t="s">
-        <v>714</v>
+        <v>76</v>
       </c>
       <c r="C438" s="4">
-        <v>43101.208333333336</v>
+        <v>43109</v>
       </c>
       <c r="D438" s="1">
         <v>20</v>
@@ -10134,10 +10146,10 @@
     </row>
     <row r="439" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A439" s="2" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B439" s="2" t="s">
-        <v>49</v>
+        <v>714</v>
       </c>
       <c r="C439" s="4">
         <v>43101.208333333336</v>
@@ -10151,10 +10163,10 @@
     </row>
     <row r="440" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A440" s="2" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B440" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C440" s="4">
         <v>43101.208333333336</v>
@@ -10168,13 +10180,13 @@
     </row>
     <row r="441" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A441" s="2" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B441" s="2" t="s">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="C441" s="4">
-        <v>43100.708333333336</v>
+        <v>43101.208333333336</v>
       </c>
       <c r="D441" s="1">
         <v>20</v>
@@ -10185,10 +10197,10 @@
     </row>
     <row r="442" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A442" s="2" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B442" s="2" t="s">
-        <v>718</v>
+        <v>16</v>
       </c>
       <c r="C442" s="4">
         <v>43100.708333333336</v>
@@ -10202,10 +10214,10 @@
     </row>
     <row r="443" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A443" s="2" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B443" s="2" t="s">
-        <v>142</v>
+        <v>718</v>
       </c>
       <c r="C443" s="4">
         <v>43100.708333333336</v>
@@ -10219,13 +10231,13 @@
     </row>
     <row r="444" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A444" s="2" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B444" s="2" t="s">
-        <v>723</v>
+        <v>142</v>
       </c>
       <c r="C444" s="4">
-        <v>43097.458333333336</v>
+        <v>43100.708333333336</v>
       </c>
       <c r="D444" s="1">
         <v>20</v>
@@ -10236,10 +10248,10 @@
     </row>
     <row r="445" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A445" s="2" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B445" s="2" t="s">
-        <v>719</v>
+        <v>723</v>
       </c>
       <c r="C445" s="4">
         <v>43097.458333333336</v>
@@ -10253,10 +10265,10 @@
     </row>
     <row r="446" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A446" s="2" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B446" s="2" t="s">
-        <v>712</v>
+        <v>719</v>
       </c>
       <c r="C446" s="4">
         <v>43097.458333333336</v>
@@ -10270,13 +10282,13 @@
     </row>
     <row r="447" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A447" s="2" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B447" s="2" t="s">
-        <v>717</v>
+        <v>712</v>
       </c>
       <c r="C447" s="4">
-        <v>43090.25</v>
+        <v>43097.458333333336</v>
       </c>
       <c r="D447" s="1">
         <v>20</v>
@@ -10287,10 +10299,10 @@
     </row>
     <row r="448" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A448" s="2" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B448" s="2" t="s">
-        <v>84</v>
+        <v>717</v>
       </c>
       <c r="C448" s="4">
         <v>43090.25</v>
@@ -10304,10 +10316,10 @@
     </row>
     <row r="449" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A449" s="2" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B449" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C449" s="4">
         <v>43090.25</v>
@@ -10321,13 +10333,13 @@
     </row>
     <row r="450" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A450" s="2" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B450" s="2" t="s">
-        <v>708</v>
+        <v>86</v>
       </c>
       <c r="C450" s="4">
-        <v>43085.75</v>
+        <v>43090.25</v>
       </c>
       <c r="D450" s="1">
         <v>20</v>
@@ -10338,10 +10350,10 @@
     </row>
     <row r="451" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A451" s="2" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B451" s="2" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="C451" s="4">
         <v>43085.75</v>
@@ -10355,10 +10367,10 @@
     </row>
     <row r="452" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A452" s="2" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B452" s="2" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="C452" s="4">
         <v>43085.75</v>
@@ -10372,13 +10384,13 @@
     </row>
     <row r="453" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A453" s="2" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B453" s="2" t="s">
-        <v>720</v>
+        <v>710</v>
       </c>
       <c r="C453" s="4">
-        <v>43083.791666666664</v>
+        <v>43085.75</v>
       </c>
       <c r="D453" s="1">
         <v>20</v>
@@ -10389,10 +10401,10 @@
     </row>
     <row r="454" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A454" s="2" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B454" s="2" t="s">
-        <v>713</v>
+        <v>720</v>
       </c>
       <c r="C454" s="4">
         <v>43083.791666666664</v>
@@ -10406,10 +10418,10 @@
     </row>
     <row r="455" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A455" s="2" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B455" s="2" t="s">
-        <v>29</v>
+        <v>713</v>
       </c>
       <c r="C455" s="4">
         <v>43083.791666666664</v>
@@ -10423,13 +10435,13 @@
     </row>
     <row r="456" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A456" s="2" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B456" s="2" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="C456" s="4">
-        <v>43079.291666666664</v>
+        <v>43083.791666666664</v>
       </c>
       <c r="D456" s="1">
         <v>20</v>
@@ -10440,10 +10452,10 @@
     </row>
     <row r="457" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A457" s="2" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B457" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C457" s="4">
         <v>43079.291666666664</v>
@@ -10457,10 +10469,10 @@
     </row>
     <row r="458" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A458" s="2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B458" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C458" s="4">
         <v>43079.291666666664</v>
@@ -10474,13 +10486,13 @@
     </row>
     <row r="459" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A459" s="2" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B459" s="2" t="s">
-        <v>19</v>
+        <v>44</v>
       </c>
       <c r="C459" s="4">
-        <v>43077.5</v>
+        <v>43079.291666666664</v>
       </c>
       <c r="D459" s="1">
         <v>20</v>
@@ -10491,10 +10503,10 @@
     </row>
     <row r="460" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A460" s="2" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B460" s="2" t="s">
-        <v>721</v>
+        <v>19</v>
       </c>
       <c r="C460" s="4">
         <v>43077.5</v>
@@ -10508,10 +10520,10 @@
     </row>
     <row r="461" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A461" s="2" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B461" s="2" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="C461" s="4">
         <v>43077.5</v>
@@ -10525,13 +10537,13 @@
     </row>
     <row r="462" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A462" s="2" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B462" s="2" t="s">
-        <v>714</v>
+        <v>722</v>
       </c>
       <c r="C462" s="4">
-        <v>43070.541666666664</v>
+        <v>43077.5</v>
       </c>
       <c r="D462" s="1">
         <v>20</v>
@@ -10542,10 +10554,10 @@
     </row>
     <row r="463" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A463" s="2" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B463" s="2" t="s">
-        <v>49</v>
+        <v>714</v>
       </c>
       <c r="C463" s="4">
         <v>43070.541666666664</v>
@@ -10559,10 +10571,10 @@
     </row>
     <row r="464" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A464" s="2" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B464" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C464" s="4">
         <v>43070.541666666664</v>
@@ -10576,13 +10588,13 @@
     </row>
     <row r="465" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A465" s="2" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B465" s="2" t="s">
-        <v>715</v>
+        <v>50</v>
       </c>
       <c r="C465" s="4">
-        <v>43069.875</v>
+        <v>43070.541666666664</v>
       </c>
       <c r="D465" s="1">
         <v>20</v>
@@ -10593,10 +10605,10 @@
     </row>
     <row r="466" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A466" s="2" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B466" s="2" t="s">
-        <v>55</v>
+        <v>715</v>
       </c>
       <c r="C466" s="4">
         <v>43069.875</v>
@@ -10610,10 +10622,10 @@
     </row>
     <row r="467" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A467" s="2" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B467" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C467" s="4">
         <v>43069.875</v>
@@ -10627,13 +10639,13 @@
     </row>
     <row r="468" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A468" s="2" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B468" s="2" t="s">
-        <v>117</v>
+        <v>57</v>
       </c>
       <c r="C468" s="4">
-        <v>43067.916666666664</v>
+        <v>43069.875</v>
       </c>
       <c r="D468" s="1">
         <v>20</v>
@@ -10644,10 +10656,10 @@
     </row>
     <row r="469" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A469" s="2" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B469" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C469" s="4">
         <v>43067.916666666664</v>
@@ -10661,10 +10673,10 @@
     </row>
     <row r="470" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A470" s="2" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B470" s="2" t="s">
-        <v>723</v>
+        <v>118</v>
       </c>
       <c r="C470" s="4">
         <v>43067.916666666664</v>
@@ -10678,13 +10690,13 @@
     </row>
     <row r="471" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A471" s="2" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B471" s="2" t="s">
-        <v>31</v>
+        <v>723</v>
       </c>
       <c r="C471" s="4">
-        <v>43060.583333333336</v>
+        <v>43067.916666666664</v>
       </c>
       <c r="D471" s="1">
         <v>20</v>
@@ -10695,10 +10707,10 @@
     </row>
     <row r="472" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A472" s="2" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B472" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C472" s="4">
         <v>43060.583333333336</v>
@@ -10712,10 +10724,10 @@
     </row>
     <row r="473" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A473" s="2" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B473" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C473" s="4">
         <v>43060.583333333336</v>
@@ -10729,13 +10741,13 @@
     </row>
     <row r="474" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A474" s="2" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B474" s="2" t="s">
-        <v>717</v>
+        <v>35</v>
       </c>
       <c r="C474" s="4">
-        <v>43055.333333333336</v>
+        <v>43060.583333333336</v>
       </c>
       <c r="D474" s="1">
         <v>20</v>
@@ -10746,10 +10758,10 @@
     </row>
     <row r="475" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A475" s="2" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B475" s="2" t="s">
-        <v>84</v>
+        <v>717</v>
       </c>
       <c r="C475" s="4">
         <v>43055.333333333336</v>
@@ -10763,10 +10775,10 @@
     </row>
     <row r="476" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A476" s="2" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B476" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C476" s="4">
         <v>43055.333333333336</v>
@@ -10780,13 +10792,13 @@
     </row>
     <row r="477" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A477" s="2" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B477" s="2" t="s">
-        <v>711</v>
+        <v>86</v>
       </c>
       <c r="C477" s="4">
-        <v>43053.083333333336</v>
+        <v>43055.333333333336</v>
       </c>
       <c r="D477" s="1">
         <v>20</v>
@@ -10797,10 +10809,10 @@
     </row>
     <row r="478" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A478" s="2" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B478" s="2" t="s">
-        <v>105</v>
+        <v>711</v>
       </c>
       <c r="C478" s="4">
         <v>43053.083333333336</v>
@@ -10814,10 +10826,10 @@
     </row>
     <row r="479" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A479" s="2" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="B479" s="2" t="s">
-        <v>12</v>
+        <v>105</v>
       </c>
       <c r="C479" s="4">
         <v>43053.083333333336</v>
@@ -10831,13 +10843,13 @@
     </row>
     <row r="480" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A480" s="2" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B480" s="2" t="s">
-        <v>719</v>
+        <v>12</v>
       </c>
       <c r="C480" s="4">
-        <v>43049.958333333336</v>
+        <v>43053.083333333336</v>
       </c>
       <c r="D480" s="1">
         <v>20</v>
@@ -10848,10 +10860,10 @@
     </row>
     <row r="481" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A481" s="2" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B481" s="2" t="s">
-        <v>712</v>
+        <v>719</v>
       </c>
       <c r="C481" s="4">
         <v>43049.958333333336</v>
@@ -10865,10 +10877,10 @@
     </row>
     <row r="482" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A482" s="2" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B482" s="2" t="s">
-        <v>42</v>
+        <v>712</v>
       </c>
       <c r="C482" s="4">
         <v>43049.958333333336</v>
@@ -10882,13 +10894,13 @@
     </row>
     <row r="483" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A483" s="2" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B483" s="2" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="C483" s="4">
-        <v>43047.416666666664</v>
+        <v>43049.958333333336</v>
       </c>
       <c r="D483" s="1">
         <v>20</v>
@@ -10899,10 +10911,10 @@
     </row>
     <row r="484" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A484" s="2" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B484" s="2" t="s">
-        <v>720</v>
+        <v>37</v>
       </c>
       <c r="C484" s="4">
         <v>43047.416666666664</v>
@@ -10916,10 +10928,10 @@
     </row>
     <row r="485" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A485" s="2" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="B485" s="2" t="s">
-        <v>713</v>
+        <v>720</v>
       </c>
       <c r="C485" s="4">
         <v>43047.416666666664</v>
@@ -10933,13 +10945,13 @@
     </row>
     <row r="486" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A486" s="2" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B486" s="2" t="s">
-        <v>58</v>
+        <v>713</v>
       </c>
       <c r="C486" s="4">
-        <v>43040.833333333336</v>
+        <v>43047.416666666664</v>
       </c>
       <c r="D486" s="1">
         <v>20</v>
@@ -10950,10 +10962,10 @@
     </row>
     <row r="487" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A487" s="2" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B487" s="2" t="s">
-        <v>135</v>
+        <v>58</v>
       </c>
       <c r="C487" s="4">
         <v>43040.833333333336</v>
@@ -10967,10 +10979,10 @@
     </row>
     <row r="488" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A488" s="2" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B488" s="2" t="s">
-        <v>76</v>
+        <v>135</v>
       </c>
       <c r="C488" s="4">
         <v>43040.833333333336</v>
@@ -10984,13 +10996,13 @@
     </row>
     <row r="489" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A489" s="2" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B489" s="2" t="s">
-        <v>714</v>
+        <v>76</v>
       </c>
       <c r="C489" s="4">
-        <v>43039.375</v>
+        <v>43040.833333333336</v>
       </c>
       <c r="D489" s="1">
         <v>20</v>
@@ -11001,10 +11013,10 @@
     </row>
     <row r="490" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A490" s="2" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="B490" s="2" t="s">
-        <v>49</v>
+        <v>714</v>
       </c>
       <c r="C490" s="4">
         <v>43039.375</v>
@@ -11018,10 +11030,10 @@
     </row>
     <row r="491" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A491" s="2" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B491" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C491" s="4">
         <v>43039.375</v>
@@ -11035,13 +11047,13 @@
     </row>
     <row r="492" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A492" s="2" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="B492" s="2" t="s">
-        <v>716</v>
+        <v>50</v>
       </c>
       <c r="C492" s="4">
-        <v>43036.125</v>
+        <v>43039.375</v>
       </c>
       <c r="D492" s="1">
         <v>20</v>
@@ -11052,10 +11064,10 @@
     </row>
     <row r="493" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A493" s="2" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B493" s="2" t="s">
-        <v>14</v>
+        <v>716</v>
       </c>
       <c r="C493" s="4">
         <v>43036.125</v>
@@ -11069,10 +11081,10 @@
     </row>
     <row r="494" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A494" s="2" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="B494" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C494" s="4">
         <v>43036.125</v>
@@ -11086,13 +11098,13 @@
     </row>
     <row r="495" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A495" s="2" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="B495" s="2" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="C495" s="4">
-        <v>43029.625</v>
+        <v>43036.125</v>
       </c>
       <c r="D495" s="1">
         <v>20</v>
@@ -11103,10 +11115,10 @@
     </row>
     <row r="496" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A496" s="2" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B496" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C496" s="4">
         <v>43029.625</v>
@@ -11120,10 +11132,10 @@
     </row>
     <row r="497" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A497" s="2" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B497" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C497" s="4">
         <v>43029.625</v>
@@ -11137,13 +11149,13 @@
     </row>
     <row r="498" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A498" s="2" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B498" s="2" t="s">
-        <v>717</v>
+        <v>33</v>
       </c>
       <c r="C498" s="4">
-        <v>43024.041666666664</v>
+        <v>43029.625</v>
       </c>
       <c r="D498" s="1">
         <v>20</v>
@@ -11154,10 +11166,10 @@
     </row>
     <row r="499" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A499" s="2" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B499" s="2" t="s">
-        <v>84</v>
+        <v>717</v>
       </c>
       <c r="C499" s="4">
         <v>43024.041666666664</v>
@@ -11171,10 +11183,10 @@
     </row>
     <row r="500" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A500" s="2" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="B500" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C500" s="4">
         <v>43024.041666666664</v>
@@ -11188,13 +11200,13 @@
     </row>
     <row r="501" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A501" s="2" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B501" s="2" t="s">
-        <v>708</v>
+        <v>86</v>
       </c>
       <c r="C501" s="4">
-        <v>43022.666666666664</v>
+        <v>43024.041666666664</v>
       </c>
       <c r="D501" s="1">
         <v>20</v>
@@ -11205,10 +11217,10 @@
     </row>
     <row r="502" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A502" s="2" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B502" s="2" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="C502" s="4">
         <v>43022.666666666664</v>
@@ -11222,10 +11234,10 @@
     </row>
     <row r="503" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A503" s="2" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="B503" s="2" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="C503" s="4">
         <v>43022.666666666664</v>
@@ -11239,13 +11251,13 @@
     </row>
     <row r="504" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A504" s="2" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B504" s="2" t="s">
-        <v>718</v>
+        <v>710</v>
       </c>
       <c r="C504" s="4">
-        <v>43018.166666666664</v>
+        <v>43022.666666666664</v>
       </c>
       <c r="D504" s="1">
         <v>20</v>
@@ -11256,10 +11268,10 @@
     </row>
     <row r="505" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A505" s="2" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="B505" s="2" t="s">
-        <v>142</v>
+        <v>718</v>
       </c>
       <c r="C505" s="4">
         <v>43018.166666666664</v>
@@ -11273,10 +11285,10 @@
     </row>
     <row r="506" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A506" s="2" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="B506" s="2" t="s">
-        <v>19</v>
+        <v>142</v>
       </c>
       <c r="C506" s="4">
         <v>43018.166666666664</v>
@@ -11290,13 +11302,13 @@
     </row>
     <row r="507" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A507" s="2" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B507" s="2" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="C507" s="4">
-        <v>43017</v>
+        <v>43018.166666666664</v>
       </c>
       <c r="D507" s="1">
         <v>20</v>
@@ -11307,10 +11319,10 @@
     </row>
     <row r="508" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A508" s="2" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="B508" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C508" s="4">
         <v>43017</v>
@@ -11324,10 +11336,10 @@
     </row>
     <row r="509" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A509" s="2" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="B509" s="2" t="s">
-        <v>720</v>
+        <v>37</v>
       </c>
       <c r="C509" s="4">
         <v>43017</v>
@@ -11341,13 +11353,13 @@
     </row>
     <row r="510" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A510" s="2" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="B510" s="2" t="s">
-        <v>714</v>
+        <v>720</v>
       </c>
       <c r="C510" s="4">
-        <v>43009.208333333336</v>
+        <v>43017</v>
       </c>
       <c r="D510" s="1">
         <v>20</v>
@@ -11358,10 +11370,10 @@
     </row>
     <row r="511" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A511" s="2" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="B511" s="2" t="s">
-        <v>49</v>
+        <v>714</v>
       </c>
       <c r="C511" s="4">
         <v>43009.208333333336</v>
@@ -11375,10 +11387,10 @@
     </row>
     <row r="512" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A512" s="2" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B512" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C512" s="4">
         <v>43009.208333333336</v>
@@ -11392,13 +11404,13 @@
     </row>
     <row r="513" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A513" s="2" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="B513" s="2" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="C513" s="4">
-        <v>43008.708333333336</v>
+        <v>43009.208333333336</v>
       </c>
       <c r="D513" s="1">
         <v>20</v>
@@ -11409,10 +11421,10 @@
     </row>
     <row r="514" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A514" s="2" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B514" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C514" s="4">
         <v>43008.708333333336</v>
@@ -11426,10 +11438,10 @@
     </row>
     <row r="515" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A515" s="2" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B515" s="2" t="s">
-        <v>117</v>
+        <v>44</v>
       </c>
       <c r="C515" s="4">
         <v>43008.708333333336</v>
@@ -11443,13 +11455,13 @@
     </row>
     <row r="516" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A516" s="2" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="B516" s="2" t="s">
-        <v>715</v>
+        <v>117</v>
       </c>
       <c r="C516" s="4">
-        <v>43006.458333333336</v>
+        <v>43008.708333333336</v>
       </c>
       <c r="D516" s="1">
         <v>20</v>
@@ -11460,10 +11472,10 @@
     </row>
     <row r="517" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A517" s="2" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B517" s="2" t="s">
-        <v>55</v>
+        <v>715</v>
       </c>
       <c r="C517" s="4">
         <v>43006.458333333336</v>
@@ -11477,10 +11489,10 @@
     </row>
     <row r="518" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A518" s="2" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B518" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C518" s="4">
         <v>43006.458333333336</v>
@@ -11494,13 +11506,13 @@
     </row>
     <row r="519" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A519" s="2" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="B519" s="2" t="s">
-        <v>721</v>
+        <v>57</v>
       </c>
       <c r="C519" s="4">
-        <v>42999.25</v>
+        <v>43006.458333333336</v>
       </c>
       <c r="D519" s="1">
         <v>20</v>
@@ -11511,10 +11523,10 @@
     </row>
     <row r="520" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A520" s="2" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B520" s="2" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="C520" s="4">
         <v>42999.25</v>
@@ -11528,10 +11540,10 @@
     </row>
     <row r="521" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A521" s="2" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="B521" s="2" t="s">
-        <v>711</v>
+        <v>722</v>
       </c>
       <c r="C521" s="4">
         <v>42999.25</v>
@@ -11545,13 +11557,13 @@
     </row>
     <row r="522" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A522" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="B522" s="2" t="s">
-        <v>717</v>
+        <v>711</v>
       </c>
       <c r="C522" s="4">
-        <v>42994.75</v>
+        <v>42999.25</v>
       </c>
       <c r="D522" s="1">
         <v>20</v>
@@ -11562,10 +11574,10 @@
     </row>
     <row r="523" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A523" s="2" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="B523" s="2" t="s">
-        <v>84</v>
+        <v>717</v>
       </c>
       <c r="C523" s="4">
         <v>42994.75</v>
@@ -11579,10 +11591,10 @@
     </row>
     <row r="524" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A524" s="2" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="B524" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C524" s="4">
         <v>42994.75</v>
@@ -11596,13 +11608,13 @@
     </row>
     <row r="525" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A525" s="2" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="B525" s="2" t="s">
-        <v>723</v>
+        <v>86</v>
       </c>
       <c r="C525" s="4">
-        <v>42992.791666666664</v>
+        <v>42994.75</v>
       </c>
       <c r="D525" s="1">
         <v>20</v>
@@ -11613,10 +11625,10 @@
     </row>
     <row r="526" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A526" s="2" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B526" s="2" t="s">
-        <v>719</v>
+        <v>723</v>
       </c>
       <c r="C526" s="4">
         <v>42992.791666666664</v>
@@ -11630,10 +11642,10 @@
     </row>
     <row r="527" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A527" s="2" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="B527" s="2" t="s">
-        <v>712</v>
+        <v>719</v>
       </c>
       <c r="C527" s="4">
         <v>42992.791666666664</v>
@@ -11647,13 +11659,13 @@
     </row>
     <row r="528" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A528" s="2" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="B528" s="2" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="C528" s="4">
-        <v>42988.291666666664</v>
+        <v>42992.791666666664</v>
       </c>
       <c r="D528" s="1">
         <v>20</v>
@@ -11664,10 +11676,10 @@
     </row>
     <row r="529" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A529" s="2" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B529" s="2" t="s">
-        <v>29</v>
+        <v>713</v>
       </c>
       <c r="C529" s="4">
         <v>42988.291666666664</v>
@@ -11681,10 +11693,10 @@
     </row>
     <row r="530" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A530" s="2" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="B530" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C530" s="4">
         <v>42988.291666666664</v>
@@ -11698,13 +11710,13 @@
     </row>
     <row r="531" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A531" s="2" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="B531" s="2" t="s">
-        <v>58</v>
+        <v>31</v>
       </c>
       <c r="C531" s="4">
-        <v>42986.5</v>
+        <v>42988.291666666664</v>
       </c>
       <c r="D531" s="1">
         <v>20</v>
@@ -11715,10 +11727,10 @@
     </row>
     <row r="532" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A532" s="2" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="B532" s="2" t="s">
-        <v>135</v>
+        <v>58</v>
       </c>
       <c r="C532" s="4">
         <v>42986.5</v>
@@ -11732,10 +11744,10 @@
     </row>
     <row r="533" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A533" s="2" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="B533" s="2" t="s">
-        <v>76</v>
+        <v>135</v>
       </c>
       <c r="C533" s="4">
         <v>42986.5</v>
@@ -11749,13 +11761,13 @@
     </row>
     <row r="534" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A534" s="2" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="B534" s="2" t="s">
-        <v>42</v>
+        <v>76</v>
       </c>
       <c r="C534" s="4">
-        <v>42979.541666666664</v>
+        <v>42986.5</v>
       </c>
       <c r="D534" s="1">
         <v>20</v>
@@ -11766,10 +11778,10 @@
     </row>
     <row r="535" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A535" s="2" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="B535" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C535" s="4">
         <v>42979.541666666664</v>
@@ -11783,10 +11795,10 @@
     </row>
     <row r="536" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A536" s="2" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="B536" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C536" s="4">
         <v>42979.541666666664</v>
@@ -11800,13 +11812,13 @@
     </row>
     <row r="537" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A537" s="2" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="B537" s="2" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="C537" s="4">
-        <v>42978.875</v>
+        <v>42979.541666666664</v>
       </c>
       <c r="D537" s="1">
         <v>20</v>
@@ -11817,10 +11829,10 @@
     </row>
     <row r="538" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A538" s="2" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="B538" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C538" s="4">
         <v>42978.875</v>
@@ -11834,10 +11846,10 @@
     </row>
     <row r="539" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A539" s="2" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="B539" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C539" s="4">
         <v>42978.875</v>
@@ -11851,13 +11863,13 @@
     </row>
     <row r="540" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A540" s="2" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="B540" s="2" t="s">
-        <v>714</v>
+        <v>37</v>
       </c>
       <c r="C540" s="4">
-        <v>42975.916666666664</v>
+        <v>42978.875</v>
       </c>
       <c r="D540" s="1">
         <v>20</v>
@@ -11868,10 +11880,10 @@
     </row>
     <row r="541" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A541" s="2" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B541" s="2" t="s">
-        <v>49</v>
+        <v>714</v>
       </c>
       <c r="C541" s="4">
         <v>42975.916666666664</v>
@@ -11885,10 +11897,10 @@
     </row>
     <row r="542" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A542" s="2" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="B542" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C542" s="4">
         <v>42975.916666666664</v>
@@ -11902,13 +11914,13 @@
     </row>
     <row r="543" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A543" s="2" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="B543" s="2" t="s">
-        <v>105</v>
+        <v>50</v>
       </c>
       <c r="C543" s="4">
-        <v>42968.583333333336</v>
+        <v>42975.916666666664</v>
       </c>
       <c r="D543" s="1">
         <v>20</v>
@@ -11919,10 +11931,10 @@
     </row>
     <row r="544" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A544" s="2" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="B544" s="2" t="s">
-        <v>12</v>
+        <v>105</v>
       </c>
       <c r="C544" s="4">
         <v>42968.583333333336</v>
@@ -11936,10 +11948,10 @@
     </row>
     <row r="545" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A545" s="2" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="B545" s="2" t="s">
-        <v>716</v>
+        <v>12</v>
       </c>
       <c r="C545" s="4">
         <v>42968.583333333336</v>
@@ -11953,13 +11965,13 @@
     </row>
     <row r="546" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A546" s="2" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="B546" s="2" t="s">
-        <v>708</v>
+        <v>716</v>
       </c>
       <c r="C546" s="4">
-        <v>42963.333333333336</v>
+        <v>42968.583333333336</v>
       </c>
       <c r="D546" s="1">
         <v>20</v>
@@ -11970,10 +11982,10 @@
     </row>
     <row r="547" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A547" s="2" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="B547" s="2" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="C547" s="4">
         <v>42963.333333333336</v>
@@ -11987,10 +11999,10 @@
     </row>
     <row r="548" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A548" s="2" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="B548" s="2" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="C548" s="4">
         <v>42963.333333333336</v>
@@ -12004,13 +12016,13 @@
     </row>
     <row r="549" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A549" s="2" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B549" s="2" t="s">
-        <v>117</v>
+        <v>710</v>
       </c>
       <c r="C549" s="4">
-        <v>42961.083333333336</v>
+        <v>42963.333333333336</v>
       </c>
       <c r="D549" s="1">
         <v>20</v>
@@ -12021,10 +12033,10 @@
     </row>
     <row r="550" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A550" s="2" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="B550" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C550" s="4">
         <v>42961.083333333336</v>
@@ -12038,10 +12050,10 @@
     </row>
     <row r="551" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A551" s="2" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="B551" s="2" t="s">
-        <v>723</v>
+        <v>118</v>
       </c>
       <c r="C551" s="4">
         <v>42961.083333333336</v>
@@ -12055,13 +12067,13 @@
     </row>
     <row r="552" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A552" s="2" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="B552" s="2" t="s">
-        <v>720</v>
+        <v>723</v>
       </c>
       <c r="C552" s="4">
-        <v>42957.958333333336</v>
+        <v>42961.083333333336</v>
       </c>
       <c r="D552" s="1">
         <v>20</v>
@@ -12072,10 +12084,10 @@
     </row>
     <row r="553" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A553" s="2" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B553" s="2" t="s">
-        <v>713</v>
+        <v>720</v>
       </c>
       <c r="C553" s="4">
         <v>42957.958333333336</v>
@@ -12089,10 +12101,10 @@
     </row>
     <row r="554" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A554" s="2" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="B554" s="2" t="s">
-        <v>29</v>
+        <v>713</v>
       </c>
       <c r="C554" s="4">
         <v>42957.958333333336</v>
@@ -12106,13 +12118,13 @@
     </row>
     <row r="555" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A555" s="2" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="B555" s="2" t="s">
-        <v>717</v>
+        <v>29</v>
       </c>
       <c r="C555" s="4">
-        <v>42955.416666666664</v>
+        <v>42957.958333333336</v>
       </c>
       <c r="D555" s="1">
         <v>20</v>
@@ -12123,10 +12135,10 @@
     </row>
     <row r="556" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A556" s="2" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="B556" s="2" t="s">
-        <v>84</v>
+        <v>717</v>
       </c>
       <c r="C556" s="4">
         <v>42955.416666666664</v>
@@ -12140,10 +12152,10 @@
     </row>
     <row r="557" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A557" s="2" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="B557" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C557" s="4">
         <v>42955.416666666664</v>
@@ -12157,13 +12169,13 @@
     </row>
     <row r="558" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A558" s="2" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="B558" s="2" t="s">
-        <v>14</v>
+        <v>86</v>
       </c>
       <c r="C558" s="4">
-        <v>42948.833333333336</v>
+        <v>42955.416666666664</v>
       </c>
       <c r="D558" s="1">
         <v>20</v>
@@ -12174,10 +12186,10 @@
     </row>
     <row r="559" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A559" s="2" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="B559" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C559" s="4">
         <v>42948.833333333336</v>
@@ -12191,10 +12203,10 @@
     </row>
     <row r="560" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A560" s="2" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="B560" s="2" t="s">
-        <v>718</v>
+        <v>16</v>
       </c>
       <c r="C560" s="4">
         <v>42948.833333333336</v>
@@ -12208,13 +12220,13 @@
     </row>
     <row r="561" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A561" s="2" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="B561" s="2" t="s">
-        <v>715</v>
+        <v>718</v>
       </c>
       <c r="C561" s="4">
-        <v>42947.375</v>
+        <v>42948.833333333336</v>
       </c>
       <c r="D561" s="1">
         <v>20</v>
@@ -12225,10 +12237,10 @@
     </row>
     <row r="562" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A562" s="2" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="B562" s="2" t="s">
-        <v>55</v>
+        <v>715</v>
       </c>
       <c r="C562" s="4">
         <v>42947.375</v>
@@ -12242,10 +12254,10 @@
     </row>
     <row r="563" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A563" s="2" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="B563" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C563" s="4">
         <v>42947.375</v>
@@ -12259,13 +12271,13 @@
     </row>
     <row r="564" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A564" s="2" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="B564" s="2" t="s">
-        <v>31</v>
+        <v>57</v>
       </c>
       <c r="C564" s="4">
-        <v>42944.125</v>
+        <v>42947.375</v>
       </c>
       <c r="D564" s="1">
         <v>20</v>
@@ -12276,10 +12288,10 @@
     </row>
     <row r="565" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A565" s="2" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="B565" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C565" s="4">
         <v>42944.125</v>
@@ -12293,10 +12305,10 @@
     </row>
     <row r="566" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A566" s="2" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="B566" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C566" s="4">
         <v>42944.125</v>
@@ -12310,13 +12322,13 @@
     </row>
     <row r="567" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A567" s="2" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="B567" s="2" t="s">
-        <v>719</v>
+        <v>35</v>
       </c>
       <c r="C567" s="4">
-        <v>42937.625</v>
+        <v>42944.125</v>
       </c>
       <c r="D567" s="1">
         <v>20</v>
@@ -12327,10 +12339,10 @@
     </row>
     <row r="568" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A568" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="B568" s="2" t="s">
-        <v>712</v>
+        <v>719</v>
       </c>
       <c r="C568" s="4">
         <v>42937.625</v>
@@ -12344,10 +12356,10 @@
     </row>
     <row r="569" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A569" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="B569" s="2" t="s">
-        <v>42</v>
+        <v>712</v>
       </c>
       <c r="C569" s="4">
         <v>42937.625</v>
@@ -12361,13 +12373,13 @@
     </row>
     <row r="570" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A570" s="2" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="B570" s="2" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="C570" s="4">
-        <v>42932.041666666664</v>
+        <v>42937.625</v>
       </c>
       <c r="D570" s="1">
         <v>20</v>
@@ -12378,10 +12390,10 @@
     </row>
     <row r="571" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A571" s="2" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="B571" s="2" t="s">
-        <v>135</v>
+        <v>58</v>
       </c>
       <c r="C571" s="4">
         <v>42932.041666666664</v>
@@ -12395,10 +12407,10 @@
     </row>
     <row r="572" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A572" s="2" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B572" s="2" t="s">
-        <v>76</v>
+        <v>135</v>
       </c>
       <c r="C572" s="4">
         <v>42932.041666666664</v>
@@ -12412,13 +12424,13 @@
     </row>
     <row r="573" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A573" s="2" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="B573" s="2" t="s">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="C573" s="4">
-        <v>42930.666666666664</v>
+        <v>42932.041666666664</v>
       </c>
       <c r="D573" s="1">
         <v>20</v>
@@ -12429,10 +12441,10 @@
     </row>
     <row r="574" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A574" s="2" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="B574" s="2" t="s">
-        <v>720</v>
+        <v>37</v>
       </c>
       <c r="C574" s="4">
         <v>42930.666666666664</v>
@@ -12446,10 +12458,10 @@
     </row>
     <row r="575" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A575" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="B575" s="2" t="s">
-        <v>713</v>
+        <v>720</v>
       </c>
       <c r="C575" s="4">
         <v>42930.666666666664</v>
@@ -12463,13 +12475,13 @@
     </row>
     <row r="576" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A576" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="B576" s="2" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="C576" s="4">
-        <v>42926.166666666664</v>
+        <v>42930.666666666664</v>
       </c>
       <c r="D576" s="1">
         <v>20</v>
@@ -12480,10 +12492,10 @@
     </row>
     <row r="577" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A577" s="2" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="B577" s="2" t="s">
-        <v>49</v>
+        <v>714</v>
       </c>
       <c r="C577" s="4">
         <v>42926.166666666664</v>
@@ -12497,10 +12509,10 @@
     </row>
     <row r="578" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A578" s="2" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="B578" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C578" s="4">
         <v>42926.166666666664</v>
@@ -12514,13 +12526,13 @@
     </row>
     <row r="579" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A579" s="2" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="B579" s="2" t="s">
-        <v>708</v>
+        <v>50</v>
       </c>
       <c r="C579" s="4">
-        <v>42925</v>
+        <v>42926.166666666664</v>
       </c>
       <c r="D579" s="1">
         <v>20</v>
@@ -12531,10 +12543,10 @@
     </row>
     <row r="580" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A580" s="2" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="B580" s="2" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="C580" s="4">
         <v>42925</v>
@@ -12548,10 +12560,10 @@
     </row>
     <row r="581" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A581" s="2" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B581" s="2" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="C581" s="4">
         <v>42925</v>
@@ -12565,13 +12577,13 @@
     </row>
     <row r="582" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A582" s="2" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="B582" s="2" t="s">
-        <v>142</v>
+        <v>710</v>
       </c>
       <c r="C582" s="4">
-        <v>42917.208333333336</v>
+        <v>42925</v>
       </c>
       <c r="D582" s="1">
         <v>20</v>
@@ -12582,10 +12594,10 @@
     </row>
     <row r="583" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A583" s="2" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="B583" s="2" t="s">
-        <v>19</v>
+        <v>142</v>
       </c>
       <c r="C583" s="4">
         <v>42917.208333333336</v>
@@ -12599,10 +12611,10 @@
     </row>
     <row r="584" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A584" s="2" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="B584" s="2" t="s">
-        <v>721</v>
+        <v>19</v>
       </c>
       <c r="C584" s="4">
         <v>42917.208333333336</v>
@@ -12616,13 +12628,13 @@
     </row>
     <row r="585" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A585" s="2" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="B585" s="2" t="s">
-        <v>29</v>
+        <v>721</v>
       </c>
       <c r="C585" s="4">
-        <v>42916.708333333336</v>
+        <v>42917.208333333336</v>
       </c>
       <c r="D585" s="1">
         <v>20</v>
@@ -12633,10 +12645,10 @@
     </row>
     <row r="586" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A586" s="2" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="B586" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C586" s="4">
         <v>42916.708333333336</v>
@@ -12650,10 +12662,10 @@
     </row>
     <row r="587" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A587" s="2" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="B587" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C587" s="4">
         <v>42916.708333333336</v>
@@ -12667,13 +12679,13 @@
     </row>
     <row r="588" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A588" s="2" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="B588" s="2" t="s">
-        <v>717</v>
+        <v>33</v>
       </c>
       <c r="C588" s="4">
-        <v>42914.458333333336</v>
+        <v>42916.708333333336</v>
       </c>
       <c r="D588" s="1">
         <v>20</v>
@@ -12684,10 +12696,10 @@
     </row>
     <row r="589" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A589" s="2" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="B589" s="2" t="s">
-        <v>84</v>
+        <v>717</v>
       </c>
       <c r="C589" s="4">
         <v>42914.458333333336</v>
@@ -12701,10 +12713,10 @@
     </row>
     <row r="590" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A590" s="2" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="B590" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C590" s="4">
         <v>42914.458333333336</v>
@@ -12718,13 +12730,13 @@
     </row>
     <row r="591" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A591" s="2" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="B591" s="2" t="s">
-        <v>43</v>
+        <v>86</v>
       </c>
       <c r="C591" s="4">
-        <v>42907.25</v>
+        <v>42914.458333333336</v>
       </c>
       <c r="D591" s="1">
         <v>20</v>
@@ -12735,10 +12747,10 @@
     </row>
     <row r="592" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A592" s="2" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="B592" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C592" s="4">
         <v>42907.25</v>
@@ -12752,10 +12764,10 @@
     </row>
     <row r="593" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A593" s="2" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="B593" s="2" t="s">
-        <v>117</v>
+        <v>44</v>
       </c>
       <c r="C593" s="4">
         <v>42907.25</v>
@@ -12769,13 +12781,13 @@
     </row>
     <row r="594" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A594" s="2" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="B594" s="2" t="s">
-        <v>715</v>
+        <v>117</v>
       </c>
       <c r="C594" s="4">
-        <v>42902.75</v>
+        <v>42907.25</v>
       </c>
       <c r="D594" s="1">
         <v>20</v>
@@ -12786,10 +12798,10 @@
     </row>
     <row r="595" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A595" s="2" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="B595" s="2" t="s">
-        <v>55</v>
+        <v>715</v>
       </c>
       <c r="C595" s="4">
         <v>42902.75</v>
@@ -12803,10 +12815,10 @@
     </row>
     <row r="596" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A596" s="2" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="B596" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C596" s="4">
         <v>42902.75</v>
@@ -12820,13 +12832,13 @@
     </row>
     <row r="597" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A597" s="2" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="B597" s="2" t="s">
-        <v>722</v>
+        <v>57</v>
       </c>
       <c r="C597" s="4">
-        <v>42900.791666666664</v>
+        <v>42902.75</v>
       </c>
       <c r="D597" s="1">
         <v>20</v>
@@ -12837,10 +12849,10 @@
     </row>
     <row r="598" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A598" s="2" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B598" s="2" t="s">
-        <v>711</v>
+        <v>722</v>
       </c>
       <c r="C598" s="4">
         <v>42900.791666666664</v>
@@ -12854,10 +12866,10 @@
     </row>
     <row r="599" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A599" s="2" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="B599" s="2" t="s">
-        <v>105</v>
+        <v>711</v>
       </c>
       <c r="C599" s="4">
         <v>42900.791666666664</v>
@@ -12871,13 +12883,13 @@
     </row>
     <row r="600" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A600" s="2" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="B600" s="2" t="s">
-        <v>714</v>
+        <v>105</v>
       </c>
       <c r="C600" s="4">
-        <v>42896.291666666664</v>
+        <v>42900.791666666664</v>
       </c>
       <c r="D600" s="1">
         <v>20</v>
@@ -12888,10 +12900,10 @@
     </row>
     <row r="601" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A601" s="2" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="B601" s="2" t="s">
-        <v>49</v>
+        <v>714</v>
       </c>
       <c r="C601" s="4">
         <v>42896.291666666664</v>
@@ -12905,10 +12917,10 @@
     </row>
     <row r="602" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A602" s="2" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="B602" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C602" s="4">
         <v>42896.291666666664</v>
@@ -12922,13 +12934,13 @@
     </row>
     <row r="603" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A603" s="2" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="B603" s="2" t="s">
-        <v>117</v>
+        <v>50</v>
       </c>
       <c r="C603" s="4">
-        <v>42894.5</v>
+        <v>42896.291666666664</v>
       </c>
       <c r="D603" s="1">
         <v>20</v>
@@ -12939,10 +12951,10 @@
     </row>
     <row r="604" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A604" s="2" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="B604" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C604" s="4">
         <v>42894.5</v>
@@ -12956,10 +12968,10 @@
     </row>
     <row r="605" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A605" s="2" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="B605" s="2" t="s">
-        <v>723</v>
+        <v>118</v>
       </c>
       <c r="C605" s="4">
         <v>42894.5</v>
@@ -12973,13 +12985,13 @@
     </row>
     <row r="606" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A606" s="2" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="B606" s="2" t="s">
-        <v>35</v>
+        <v>723</v>
       </c>
       <c r="C606" s="4">
-        <v>42887.541666666664</v>
+        <v>42894.5</v>
       </c>
       <c r="D606" s="1">
         <v>20</v>
@@ -12990,10 +13002,10 @@
     </row>
     <row r="607" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A607" s="2" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="B607" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C607" s="4">
         <v>42887.541666666664</v>
@@ -13007,10 +13019,10 @@
     </row>
     <row r="608" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A608" s="2" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="B608" s="2" t="s">
-        <v>720</v>
+        <v>37</v>
       </c>
       <c r="C608" s="4">
         <v>42887.541666666664</v>
@@ -13024,13 +13036,13 @@
     </row>
     <row r="609" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A609" s="2" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="B609" s="2" t="s">
-        <v>58</v>
+        <v>720</v>
       </c>
       <c r="C609" s="4">
-        <v>42886.875</v>
+        <v>42887.541666666664</v>
       </c>
       <c r="D609" s="1">
         <v>20</v>
@@ -13041,10 +13053,10 @@
     </row>
     <row r="610" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A610" s="2" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="B610" s="2" t="s">
-        <v>135</v>
+        <v>58</v>
       </c>
       <c r="C610" s="4">
         <v>42886.875</v>
@@ -13058,10 +13070,10 @@
     </row>
     <row r="611" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A611" s="2" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="B611" s="2" t="s">
-        <v>76</v>
+        <v>135</v>
       </c>
       <c r="C611" s="4">
         <v>42886.875</v>
@@ -13075,13 +13087,13 @@
     </row>
     <row r="612" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A612" s="2" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="B612" s="2" t="s">
-        <v>719</v>
+        <v>76</v>
       </c>
       <c r="C612" s="4">
-        <v>42883.916666666664</v>
+        <v>42886.875</v>
       </c>
       <c r="D612" s="1">
         <v>20</v>
@@ -13092,10 +13104,10 @@
     </row>
     <row r="613" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A613" s="2" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="B613" s="2" t="s">
-        <v>712</v>
+        <v>719</v>
       </c>
       <c r="C613" s="4">
         <v>42883.916666666664</v>
@@ -13109,10 +13121,10 @@
     </row>
     <row r="614" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A614" s="2" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="B614" s="2" t="s">
-        <v>42</v>
+        <v>712</v>
       </c>
       <c r="C614" s="4">
         <v>42883.916666666664</v>
@@ -13126,13 +13138,13 @@
     </row>
     <row r="615" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A615" s="2" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="B615" s="2" t="s">
-        <v>713</v>
+        <v>42</v>
       </c>
       <c r="C615" s="4">
-        <v>42876.583333333336</v>
+        <v>42883.916666666664</v>
       </c>
       <c r="D615" s="1">
         <v>20</v>
@@ -13143,10 +13155,10 @@
     </row>
     <row r="616" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A616" s="2" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="B616" s="2" t="s">
-        <v>29</v>
+        <v>713</v>
       </c>
       <c r="C616" s="4">
         <v>42876.583333333336</v>
@@ -13160,10 +13172,10 @@
     </row>
     <row r="617" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A617" s="2" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="B617" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C617" s="4">
         <v>42876.583333333336</v>
@@ -13177,13 +13189,13 @@
     </row>
     <row r="618" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A618" s="2" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="B618" s="2" t="s">
-        <v>717</v>
+        <v>31</v>
       </c>
       <c r="C618" s="4">
-        <v>42871.333333333336</v>
+        <v>42876.583333333336</v>
       </c>
       <c r="D618" s="1">
         <v>20</v>
@@ -13194,10 +13206,10 @@
     </row>
     <row r="619" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A619" s="2" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="B619" s="2" t="s">
-        <v>84</v>
+        <v>717</v>
       </c>
       <c r="C619" s="4">
         <v>42871.333333333336</v>
@@ -13211,10 +13223,10 @@
     </row>
     <row r="620" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A620" s="2" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="B620" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C620" s="4">
         <v>42871.333333333336</v>
@@ -13228,13 +13240,13 @@
     </row>
     <row r="621" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A621" s="2" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="B621" s="2" t="s">
-        <v>12</v>
+        <v>86</v>
       </c>
       <c r="C621" s="4">
-        <v>42869.083333333336</v>
+        <v>42871.333333333336</v>
       </c>
       <c r="D621" s="1">
         <v>20</v>
@@ -13245,10 +13257,10 @@
     </row>
     <row r="622" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A622" s="2" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="B622" s="2" t="s">
-        <v>716</v>
+        <v>12</v>
       </c>
       <c r="C622" s="4">
         <v>42869.083333333336</v>
@@ -13262,10 +13274,10 @@
     </row>
     <row r="623" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A623" s="2" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="B623" s="2" t="s">
-        <v>14</v>
+        <v>716</v>
       </c>
       <c r="C623" s="4">
         <v>42869.083333333336</v>
@@ -13279,13 +13291,13 @@
     </row>
     <row r="624" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A624" s="2" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="B624" s="2" t="s">
-        <v>708</v>
+        <v>14</v>
       </c>
       <c r="C624" s="4">
-        <v>42865.958333333336</v>
+        <v>42869.083333333336</v>
       </c>
       <c r="D624" s="1">
         <v>20</v>
@@ -13296,10 +13308,10 @@
     </row>
     <row r="625" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A625" s="2" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="B625" s="2" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="C625" s="4">
         <v>42865.958333333336</v>
@@ -13313,10 +13325,10 @@
     </row>
     <row r="626" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A626" s="2" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="B626" s="2" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="C626" s="4">
         <v>42865.958333333336</v>
@@ -13330,13 +13342,13 @@
     </row>
     <row r="627" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A627" s="2" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="B627" s="2" t="s">
-        <v>43</v>
+        <v>710</v>
       </c>
       <c r="C627" s="4">
-        <v>42863.416666666664</v>
+        <v>42865.958333333336</v>
       </c>
       <c r="D627" s="1">
         <v>20</v>
@@ -13347,10 +13359,10 @@
     </row>
     <row r="628" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A628" s="2" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="B628" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C628" s="4">
         <v>42863.416666666664</v>
@@ -13364,10 +13376,10 @@
     </row>
     <row r="629" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A629" s="2" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="B629" s="2" t="s">
-        <v>117</v>
+        <v>44</v>
       </c>
       <c r="C629" s="4">
         <v>42863.416666666664</v>
@@ -13381,13 +13393,13 @@
     </row>
     <row r="630" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A630" s="2" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="B630" s="2" t="s">
-        <v>33</v>
+        <v>117</v>
       </c>
       <c r="C630" s="4">
-        <v>42856.833333333336</v>
+        <v>42863.416666666664</v>
       </c>
       <c r="D630" s="1">
         <v>20</v>
@@ -13398,10 +13410,10 @@
     </row>
     <row r="631" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A631" s="2" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="B631" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C631" s="4">
         <v>42856.833333333336</v>
@@ -13415,10 +13427,10 @@
     </row>
     <row r="632" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A632" s="2" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="B632" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C632" s="4">
         <v>42856.833333333336</v>
@@ -13432,13 +13444,13 @@
     </row>
     <row r="633" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A633" s="2" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="B633" s="2" t="s">
-        <v>714</v>
+        <v>37</v>
       </c>
       <c r="C633" s="4">
-        <v>42855.375</v>
+        <v>42856.833333333336</v>
       </c>
       <c r="D633" s="1">
         <v>20</v>
@@ -13449,10 +13461,10 @@
     </row>
     <row r="634" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A634" s="2" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="B634" s="2" t="s">
-        <v>49</v>
+        <v>714</v>
       </c>
       <c r="C634" s="4">
         <v>42855.375</v>
@@ -13466,10 +13478,10 @@
     </row>
     <row r="635" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A635" s="2" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="B635" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C635" s="4">
         <v>42855.375</v>
@@ -13483,13 +13495,13 @@
     </row>
     <row r="636" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A636" s="2" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="B636" s="2" t="s">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="C636" s="4">
-        <v>42853.125</v>
+        <v>42855.375</v>
       </c>
       <c r="D636" s="1">
         <v>20</v>
@@ -13500,10 +13512,10 @@
     </row>
     <row r="637" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A637" s="2" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="B637" s="2" t="s">
-        <v>718</v>
+        <v>16</v>
       </c>
       <c r="C637" s="4">
         <v>42853.125</v>
@@ -13517,10 +13529,10 @@
     </row>
     <row r="638" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A638" s="2" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="B638" s="2" t="s">
-        <v>142</v>
+        <v>718</v>
       </c>
       <c r="C638" s="4">
         <v>42853.125</v>
@@ -13534,13 +13546,13 @@
     </row>
     <row r="639" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A639" s="2" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="B639" s="2" t="s">
-        <v>715</v>
+        <v>142</v>
       </c>
       <c r="C639" s="4">
-        <v>42846.625</v>
+        <v>42853.125</v>
       </c>
       <c r="D639" s="1">
         <v>20</v>
@@ -13551,10 +13563,10 @@
     </row>
     <row r="640" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A640" s="2" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="B640" s="2" t="s">
-        <v>55</v>
+        <v>715</v>
       </c>
       <c r="C640" s="4">
         <v>42846.625</v>
@@ -13568,10 +13580,10 @@
     </row>
     <row r="641" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A641" s="2" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="B641" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C641" s="4">
         <v>42846.625</v>
@@ -13585,13 +13597,13 @@
     </row>
     <row r="642" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A642" s="2" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="B642" s="2" t="s">
-        <v>720</v>
+        <v>57</v>
       </c>
       <c r="C642" s="4">
-        <v>42841.041666666664</v>
+        <v>42846.625</v>
       </c>
       <c r="D642" s="1">
         <v>20</v>
@@ -13602,10 +13614,10 @@
     </row>
     <row r="643" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A643" s="2" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="B643" s="2" t="s">
-        <v>713</v>
+        <v>720</v>
       </c>
       <c r="C643" s="4">
         <v>42841.041666666664</v>
@@ -13619,10 +13631,10 @@
     </row>
     <row r="644" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A644" s="2" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="B644" s="2" t="s">
-        <v>29</v>
+        <v>713</v>
       </c>
       <c r="C644" s="4">
         <v>42841.041666666664</v>
@@ -13636,13 +13648,13 @@
     </row>
     <row r="645" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A645" s="2" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="B645" s="2" t="s">
-        <v>118</v>
+        <v>29</v>
       </c>
       <c r="C645" s="4">
-        <v>42839.666666666664</v>
+        <v>42841.041666666664</v>
       </c>
       <c r="D645" s="1">
         <v>20</v>
@@ -13653,10 +13665,10 @@
     </row>
     <row r="646" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A646" s="2" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="B646" s="2" t="s">
-        <v>723</v>
+        <v>118</v>
       </c>
       <c r="C646" s="4">
         <v>42839.666666666664</v>
@@ -13670,10 +13682,10 @@
     </row>
     <row r="647" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A647" s="2" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="B647" s="2" t="s">
-        <v>719</v>
+        <v>723</v>
       </c>
       <c r="C647" s="4">
         <v>42839.666666666664</v>
@@ -13687,13 +13699,13 @@
     </row>
     <row r="648" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A648" s="2" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="B648" s="2" t="s">
-        <v>58</v>
+        <v>719</v>
       </c>
       <c r="C648" s="4">
-        <v>42835.166666666664</v>
+        <v>42839.666666666664</v>
       </c>
       <c r="D648" s="1">
         <v>20</v>
@@ -13704,10 +13716,10 @@
     </row>
     <row r="649" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A649" s="2" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="B649" s="2" t="s">
-        <v>135</v>
+        <v>58</v>
       </c>
       <c r="C649" s="4">
         <v>42835.166666666664</v>
@@ -13721,10 +13733,10 @@
     </row>
     <row r="650" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A650" s="2" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="B650" s="2" t="s">
-        <v>76</v>
+        <v>135</v>
       </c>
       <c r="C650" s="4">
         <v>42835.166666666664</v>
@@ -13738,13 +13750,13 @@
     </row>
     <row r="651" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A651" s="2" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="B651" s="2" t="s">
-        <v>717</v>
+        <v>76</v>
       </c>
       <c r="C651" s="4">
-        <v>42834</v>
+        <v>42835.166666666664</v>
       </c>
       <c r="D651" s="1">
         <v>20</v>
@@ -13755,10 +13767,10 @@
     </row>
     <row r="652" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A652" s="2" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="B652" s="2" t="s">
-        <v>84</v>
+        <v>717</v>
       </c>
       <c r="C652" s="4">
         <v>42834</v>
@@ -13772,10 +13784,10 @@
     </row>
     <row r="653" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A653" s="2" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="B653" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C653" s="4">
         <v>42834</v>
@@ -13789,13 +13801,13 @@
     </row>
     <row r="654" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A654" s="2" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="B654" s="2" t="s">
-        <v>19</v>
+        <v>86</v>
       </c>
       <c r="C654" s="4">
-        <v>42826.208333333336</v>
+        <v>42834</v>
       </c>
       <c r="D654" s="1">
         <v>20</v>
@@ -13806,10 +13818,10 @@
     </row>
     <row r="655" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A655" s="2" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="B655" s="2" t="s">
-        <v>721</v>
+        <v>19</v>
       </c>
       <c r="C655" s="4">
         <v>42826.208333333336</v>
@@ -13823,10 +13835,10 @@
     </row>
     <row r="656" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A656" s="2" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="B656" s="2" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="C656" s="4">
         <v>42826.208333333336</v>
@@ -13835,6 +13847,23 @@
         <v>20</v>
       </c>
       <c r="E656" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="657" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A657" s="2" t="s">
+        <v>707</v>
+      </c>
+      <c r="B657" s="2" t="s">
+        <v>722</v>
+      </c>
+      <c r="C657" s="4">
+        <v>42826.208333333336</v>
+      </c>
+      <c r="D657" s="1">
+        <v>20</v>
+      </c>
+      <c r="E657" s="2">
         <v>2</v>
       </c>
     </row>

--- a/file/CSV/supply.xlsx
+++ b/file/CSV/supply.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1317" uniqueCount="734">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1317" uniqueCount="737">
   <si>
     <t>제품코드</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2288,6 +2288,18 @@
   </si>
   <si>
     <t>A101</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D101</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D102</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D103</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2684,8 +2696,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E657"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" topLeftCell="A39" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="H59" sqref="H59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3672,7 +3684,7 @@
         <v>99</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>28</v>
+        <v>734</v>
       </c>
       <c r="C58" s="4">
         <v>43556.75</v>
@@ -3689,7 +3701,7 @@
         <v>100</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>29</v>
+        <v>735</v>
       </c>
       <c r="C59" s="4">
         <v>43556.75</v>
@@ -3706,7 +3718,7 @@
         <v>101</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>31</v>
+        <v>736</v>
       </c>
       <c r="C60" s="4">
         <v>43556.75</v>
